--- a/Warehouse Manager/Database/Orders.xlsx
+++ b/Warehouse Manager/Database/Orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arrivals" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,11 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,317 +31,22 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <b val="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF9C5700"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,109 +55,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.3999755851924192"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,100 +76,23 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28"/>
-    <cellStyle name="Input" xfId="9" builtinId="20"/>
-    <cellStyle name="Output" xfId="10" builtinId="21"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29"/>
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -896,48 +433,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="6" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="18.109375" bestFit="1" customWidth="1" min="3" max="4"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="208.109375" bestFit="1" customWidth="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Arrival Time</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Dispatch Time</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Supplier</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Items</t>
         </is>
@@ -945,1301 +475,521 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50017</v>
+        <v>50001</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45066.98435069445</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45066.98540393518</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>45071.8710108066</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>45071.8710108066</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier Z</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1000}, {'Name': 'Moisturizing Cream', 'Quantity': 800}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 100}, {'Name': 'Paint Brush Set', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50029</v>
+        <v>50002</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45066.9843855787</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45066.9843855787</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>45071.87101085933</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>45071.87101085933</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Supplier K</t>
+          <t>Supplier C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1600}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 200}, {'Name': 'Wireless Headphones', 'Quantity': 300}, {'Name': 'Wireless Mouse', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50033</v>
+        <v>50003</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45066.98445510417</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45066.98547362268</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>45071.87101091742</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>45071.87102249149</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Utility Knife', 'Quantity': 600}, {'Name': 'Toolbox', 'Quantity': 400}, {'Name': 'Hammer', 'Quantity': 800}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 500}, {'Name': 'Mascara', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50002</v>
+        <v>50005</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>45066.98447783565</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45066.98547320602</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>45071.87101100563</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>45071.8710225797</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 500}, {'Name': 'HDMI Cable', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50035</v>
+        <v>50007</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>45066.98448987269</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45066.98484866898</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>45071.87101107732</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>45071.87101107732</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier E</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Toolbox', 'Quantity': 400}, {'Name': 'Sanding Block', 'Quantity': 300}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1000}, {'Name': 'Floor Lamp', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50024</v>
+        <v>50011</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>45066.98450127315</v>
-      </c>
-      <c r="D7" t="n">
-        <v>45066.9848369213</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>45071.87101129258</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>45071.87101129258</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Toolbox', 'Quantity': 400}, {'Name': 'Screwdriver Set', 'Quantity': 600}, {'Name': 'Hammer', 'Quantity': 800}]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Yoga Block', 'Quantity': 100}, {'Name': 'Resistance Bands', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50026</v>
+        <v>50012</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>45066.98454759259</v>
-      </c>
-      <c r="D8" t="n">
-        <v>45066.98538092593</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>45071.87101132313</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>45071.87101132313</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Supplier E</t>
+          <t>Supplier O</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 2100}]</t>
+          <t>[{'Name': 'Bath Towels', 'Quantity': 400}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50037</v>
+        <v>50013</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>45066.9845477662</v>
-      </c>
-      <c r="D9" t="n">
-        <v>45066.98461721065</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>45071.87101135292</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>45071.87101135292</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier L</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50010</v>
+        <v>50015</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>45066.98455896991</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45066.98497563657</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>45071.87101151001</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>45071.87101151001</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Supplier S</t>
+          <t>Supplier K</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 600}, {'Name': 'Cutting Board', 'Quantity': 300}, {'Name': 'Knife Set', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50003</v>
+        <v>50018</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>45066.98463989583</v>
-      </c>
-      <c r="D11" t="n">
-        <v>45066.98551952546</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>45071.87101158587</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>45071.87101158587</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier O</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1300}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
+          <t>[{'Name': 'Bath Towels', 'Quantity': 400}]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50044</v>
+        <v>50020</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>45066.98466358797</v>
-      </c>
-      <c r="D12" t="n">
-        <v>45066.98498766204</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>45071.87101169641</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>45071.87102327048</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Supplier A</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 2300}]</t>
+          <t>[{'Name': 'Meditation Cushion', 'Quantity': 100}, {'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Yoga Block', 'Quantity': 100}, {'Name': 'Resistance Bands', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>50008</v>
+        <v>50004</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>45066.98468626157</v>
-      </c>
-      <c r="D13" t="n">
-        <v>45066.9847209838</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>45071.87102254497</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>45071.87103411904</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 200}, {'Name': 'Wireless Headphones', 'Quantity': 300}, {'Name': 'Wireless Mouse', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>50021</v>
+        <v>50006</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>45066.98469798611</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45066.98498733796</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>45071.87102260287</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>45071.87102260287</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier L</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Screwdriver Set', 'Quantity': 600}, {'Name': 'Hammer', 'Quantity': 800}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 300}]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>50023</v>
+        <v>50008</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>45066.98473271991</v>
-      </c>
-      <c r="D15" t="n">
-        <v>45066.9858091088</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>45071.87102269609</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>45071.87102269609</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Supplier A</t>
+          <t>Supplier S</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 2300}, {'Name': 'AAA Batteries', 'Quantity': 1800}]</t>
+          <t>[{'Name': 'Cutting Board', 'Quantity': 100}, {'Name': 'Mixing Bowl Set', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>50004</v>
+        <v>50009</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>45066.98474407407</v>
-      </c>
-      <c r="D16" t="n">
-        <v>45066.98539222222</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>45071.8710227436</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>45071.8710227436</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Supplier K</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1600}, {'Name': 'Essential Oil Set', 'Quantity': 800}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 500}, {'Name': 'Mascara', 'Quantity': 500}, {'Name': 'Lipstick', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>50015</v>
+        <v>50010</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>45066.98475576389</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45066.98517243056</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45071.87102279678</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>45071.87102279678</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1000}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 500}, {'Name': 'Mascara', 'Quantity': 500}, {'Name': 'Lipstick', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>50022</v>
+        <v>50014</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>45066.98475585648</v>
-      </c>
-      <c r="D18" t="n">
-        <v>45066.9857280787</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>45071.87102304934</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>45071.87103462341</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Supplier E</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 2100}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 200}, {'Name': 'Measuring Tape', 'Quantity': 500}, {'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Hammer', 'Quantity': 300}]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>50020</v>
+        <v>50016</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>45066.98476739584</v>
-      </c>
-      <c r="D19" t="n">
-        <v>45066.9848715625</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>45071.87102310723</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>45071.87102310723</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Supplier T</t>
+          <t>Supplier W</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[{'Name': 'Cookware Set', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Blender', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>50012</v>
+        <v>50017</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>45066.98480203703</v>
-      </c>
-      <c r="D20" t="n">
-        <v>45066.9849062037</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>45071.87102312523</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>45071.87102312523</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Supplier E</t>
+          <t>Supplier T</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 2100}]</t>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>50049</v>
+        <v>50019</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>45066.98483728009</v>
-      </c>
-      <c r="D21" t="n">
-        <v>45066.98492987268</v>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>45071.87102319468</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>45071.87102319468</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Supplier K</t>
+          <t>Supplier O</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1600}, {'Name': 'Essential Oil Set', 'Quantity': 800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>50005</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>45066.98484826389</v>
-      </c>
-      <c r="D22" t="n">
-        <v>45066.98543854167</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>50001</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>45066.98485975694</v>
-      </c>
-      <c r="D23" t="n">
-        <v>45066.98587827546</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Eyeshadow Palette', 'Quantity': 1300}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>50030</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>45066.98487171296</v>
-      </c>
-      <c r="D24" t="n">
-        <v>45066.98593652778</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Toolbox', 'Quantity': 400}, {'Name': 'Hammer', 'Quantity': 800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>50028</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>45066.98488325231</v>
-      </c>
-      <c r="D25" t="n">
-        <v>45066.98497584491</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Supplier Z</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 400}, {'Name': 'Paint Brush Set', 'Quantity': 500}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>50041</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>45066.98494134259</v>
-      </c>
-      <c r="D26" t="n">
-        <v>45066.98586726851</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}, {'Name': 'Eyeshadow Palette', 'Quantity': 1300}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>50007</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>45066.98506819444</v>
-      </c>
-      <c r="D27" t="n">
-        <v>45066.98521865741</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Supplier O</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bath Towels', 'Quantity': 500}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>50050</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>45066.98506877315</v>
-      </c>
-      <c r="D28" t="n">
-        <v>45066.98615673611</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Supplier B</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>50014</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>45066.98511456019</v>
-      </c>
-      <c r="D29" t="n">
-        <v>45066.98573956019</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Supplier V</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 2100}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>50011</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>45066.98512609953</v>
-      </c>
-      <c r="D30" t="n">
-        <v>45066.98591313657</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Supplier U</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Wall Clock', 'Quantity': 600}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>50048</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>45066.98512662037</v>
-      </c>
-      <c r="D31" t="n">
-        <v>45066.98582106482</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>50043</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>45066.98513811343</v>
-      </c>
-      <c r="D32" t="n">
-        <v>45066.98586728009</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Supplier B</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 500}, {'Name': 'USB Flash Drive', 'Quantity': 1800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>50013</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>45066.98516084491</v>
-      </c>
-      <c r="D33" t="n">
-        <v>45066.98564695602</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 800}, {'Name': 'Wireless Mouse', 'Quantity': 500}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>50018</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>45066.9851724537</v>
-      </c>
-      <c r="D34" t="n">
-        <v>45066.98606365741</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Supplier B</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>50027</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>45066.98517259259</v>
-      </c>
-      <c r="D35" t="n">
-        <v>45066.985705</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Supplier V</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 2100}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>50031</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>45066.98519581019</v>
-      </c>
-      <c r="D36" t="n">
-        <v>45066.98631849537</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>50006</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>45066.98527651621</v>
-      </c>
-      <c r="D37" t="n">
-        <v>45066.98562373842</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Supplier O</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bath Towels', 'Quantity': 500}, {'Name': 'Bed Sheets', 'Quantity': 400}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>50038</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>45066.98527694445</v>
-      </c>
-      <c r="D38" t="n">
-        <v>45066.98549685185</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Supplier J</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1300}, {'Name': 'Yoga Mat', 'Quantity': 800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>50016</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>45066.98528818287</v>
-      </c>
-      <c r="D39" t="n">
-        <v>45066.98579744213</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Supplier L</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1000}, {'Name': 'Moisturizing Cream', 'Quantity': 800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>50025</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>45066.98535776621</v>
-      </c>
-      <c r="D40" t="n">
-        <v>45066.98587859954</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}, {'Name': 'Eyeshadow Palette', 'Quantity': 1300}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>50046</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>45066.98539280093</v>
-      </c>
-      <c r="D41" t="n">
-        <v>45066.98616826389</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Supplier J</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1300}, {'Name': 'Yoga Mat', 'Quantity': 800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>50009</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>45066.98541543981</v>
-      </c>
-      <c r="D42" t="n">
-        <v>45066.98575108797</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1300}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>50042</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>45066.98541589121</v>
-      </c>
-      <c r="D43" t="n">
-        <v>45066.98636496528</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 800}, {'Name': 'Wireless Mouse', 'Quantity': 500}, {'Name': 'Wireless Headphones', 'Quantity': 1000}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>50047</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>45066.98543910879</v>
-      </c>
-      <c r="D44" t="n">
-        <v>45066.98631873843</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Supplier O</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 400}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>50039</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>45066.98545055556</v>
-      </c>
-      <c r="D45" t="n">
-        <v>45066.98628388889</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Supplier B</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 500}, {'Name': 'USB Flash Drive', 'Quantity': 1800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>50036</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>45066.98546210648</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45066.98579775463</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Supplier K</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1600}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>50040</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>45066.98546215278</v>
-      </c>
-      <c r="D47" t="n">
-        <v>45066.98589039352</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>50019</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>45066.98547341435</v>
-      </c>
-      <c r="D48" t="n">
-        <v>45066.98620258102</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Utility Knife', 'Quantity': 600}, {'Name': 'Screwdriver Set', 'Quantity': 600}, {'Name': 'Hammer', 'Quantity': 800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>50034</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>45066.98547363426</v>
-      </c>
-      <c r="D49" t="n">
-        <v>45066.98553150463</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>50045</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>45066.98548537037</v>
-      </c>
-      <c r="D50" t="n">
-        <v>45066.9857862963</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Screwdriver Set', 'Quantity': 600}, {'Name': 'Hammer', 'Quantity': 800}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50032</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>45066.98550831019</v>
-      </c>
-      <c r="D51" t="n">
-        <v>45066.98614488426</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Supplier O</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 400}]</t>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
@@ -2263,32 +1013,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Placed Time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Deadline</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Items</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
@@ -2296,911 +1046,911 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>600009</v>
+        <v>600006</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45070.54500453798</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45071.54500453798</v>
+      <c r="C2" s="5" t="n">
+        <v>45071.71801074074</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>45072.71801074074</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>600052</v>
+        <v>600030</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45070.54501551595</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45071.54501551595</v>
+      <c r="C3" s="5" t="n">
+        <v>45071.71801666667</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>45072.71801666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>600060</v>
+        <v>600050</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45070.54501804494</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45071.54501804494</v>
+      <c r="C4" s="5" t="n">
+        <v>45071.71802175926</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>45072.71802175926</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>600003</v>
+        <v>600058</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45070.54500333044</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45071.58666999711</v>
+      <c r="C5" s="5" t="n">
+        <v>45071.71802407407</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>45072.71802407407</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>600008</v>
+        <v>600088</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45070.54500440512</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45071.58667107178</v>
+      <c r="C6" s="5" t="n">
+        <v>45071.71803155092</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>45072.71803155092</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
+          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>600091</v>
+        <v>600075</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45070.54502662821</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45071.58669329487</v>
+      <c r="C7" s="5" t="n">
+        <v>45071.71802827546</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>45072.75969494213</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Resistance Bands', 'Quantity': 1}, {'Name': 'Food Storage Containers', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 2}, {'Name': 'Eyeshadow Palette', 'Quantity': 2}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>600092</v>
+        <v>600087</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45070.54502672672</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45071.58669339339</v>
+      <c r="C8" s="5" t="n">
+        <v>45071.71803144676</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>45072.75969811343</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[{'Name': 'Toolbox', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>600020</v>
+        <v>600009</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45070.54500733962</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>45071.62834067295</v>
+      <c r="C9" s="5" t="n">
+        <v>45071.71801111111</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>45072.80134444444</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Maker', 'Quantity': 1}, {'Name': 'Food Storage Containers', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
+          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>600031</v>
+        <v>600026</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45070.54501077057</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>45071.6283441039</v>
+      <c r="C10" s="5" t="n">
+        <v>45071.71801575232</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>45072.80134908565</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Steam Iron', 'Quantity': 1}, {'Name': 'Bath Towels', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
+          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>600081</v>
+        <v>600034</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45070.54502329534</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>45071.62835662868</v>
+      <c r="C11" s="5" t="n">
+        <v>45071.71801726852</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>45072.80135060185</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Cookware Set', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Maker', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
+          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>600090</v>
+        <v>600084</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45070.54502601436</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>45071.62835934768</v>
+      <c r="C12" s="5" t="n">
+        <v>45071.7180305787</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>45072.80136391204</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 2}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>600093</v>
+        <v>600089</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45070.54502719032</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>45071.62836052366</v>
+      <c r="C13" s="5" t="n">
+        <v>45071.71803181713</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>45072.80136515047</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}, {'Name': 'Bath Towels', 'Quantity': 2}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}, {'Name': 'Steam Iron', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>600044</v>
+        <v>600013</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45070.54501336006</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>45071.6700133717</v>
+      <c r="C14" s="5" t="n">
+        <v>45071.7180125463</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>45072.8430125463</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
+          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>600074</v>
+        <v>600016</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45070.5450208552</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>45071.6700208552</v>
+      <c r="C15" s="5" t="n">
+        <v>45071.71801315972</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>45072.84301315972</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>600078</v>
+        <v>600022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45070.5450224458</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>45071.6700224458</v>
+      <c r="C16" s="5" t="n">
+        <v>45071.71801527778</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>45072.84301527778</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Utility Knife', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>600085</v>
+        <v>600023</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45070.54502401079</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>45071.67002401079</v>
+      <c r="C17" s="5" t="n">
+        <v>45071.71801539352</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>45072.84301539352</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bahnhofstraße 30, Stoccarda, Baden-Württemberg, 70173, Germania</t>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>600007</v>
+        <v>600069</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45070.54500404152</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>45071.71167070818</v>
+      <c r="C18" s="5" t="n">
+        <v>45071.71802685185</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>45072.84302685185</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
+          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>600027</v>
+        <v>600001</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45070.54500913936</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>45071.71167581461</v>
+      <c r="C19" s="5" t="n">
+        <v>45071.71800975694</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>45072.88467642361</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}, {'Name': 'Basketball', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>600028</v>
+        <v>600072</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45070.54500941148</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>45071.71167607815</v>
+      <c r="C20" s="5" t="n">
+        <v>45071.7180274537</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>45072.88469412037</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[{'Name': 'Knife Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
+          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>600032</v>
+        <v>600008</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45070.54501094685</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>45071.71167761352</v>
+      <c r="C21" s="5" t="n">
+        <v>45071.71801099537</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>45072.92634432871</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>600041</v>
+        <v>600061</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45070.54501299043</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>45071.71167965709</v>
+      <c r="C22" s="5" t="n">
+        <v>45071.71802453704</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>45072.92635787037</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
+          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>600047</v>
+        <v>600079</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45070.54501386366</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>45071.71168053032</v>
+      <c r="C23" s="5" t="n">
+        <v>45071.71802877315</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>45072.92636210648</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>600055</v>
+        <v>600081</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45070.5450167933</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>45071.71168345997</v>
+      <c r="C24" s="5" t="n">
+        <v>45071.71802924768</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>45072.92636258102</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>600061</v>
+        <v>600085</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45070.54501818155</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>45071.71168484822</v>
+      <c r="C25" s="5" t="n">
+        <v>45071.71803079861</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>45072.92636413194</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
+          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>600083</v>
+        <v>600091</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45070.5450237687</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>45071.71169043537</v>
+      <c r="C26" s="5" t="n">
+        <v>45071.71803233797</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>45072.92636567129</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Yoga Mat', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>600087</v>
+        <v>600095</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45070.54502483708</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>45071.71169150375</v>
+      <c r="C27" s="5" t="n">
+        <v>45071.71803280093</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>45072.92636613426</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>600058</v>
+        <v>600028</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45070.54501763076</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>45071.7533509641</v>
+      <c r="C28" s="5" t="n">
+        <v>45071.71801628472</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>45072.96801628472</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[{'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
+          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>600097</v>
+        <v>600052</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45070.54502871913</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>45071.75336205246</v>
+      <c r="C29" s="5" t="n">
+        <v>45071.71802287037</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>45072.96802287037</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 2}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}, {'Name': 'Screwdriver Set', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rue du Lac 8, Losanna, Vaud, 1005, Svizzera</t>
+          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>600001</v>
+        <v>600060</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45070.54500297178</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>45071.79500297178</v>
+      <c r="C30" s="5" t="n">
+        <v>45071.71802428241</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>45072.96802428241</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>25 Avenue des Champs-Élysées, Parigi, Île-de-France, 75008, Francia</t>
+          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>600012</v>
+        <v>600064</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45070.54500541035</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>45071.79500542083</v>
+      <c r="C31" s="5" t="n">
+        <v>45071.71802538195</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>45072.96802538195</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>600076</v>
+        <v>600083</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45070.54502195262</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>45071.79502195262</v>
+      <c r="C32" s="5" t="n">
+        <v>45071.7180302199</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>45072.9680302199</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}, {'Name': 'Measuring Tape', 'Quantity': 1}, {'Name': 'Knife Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 3}]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
+          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>600077</v>
+        <v>600035</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45070.54502208068</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>45071.79502208068</v>
+      <c r="C33" s="5" t="n">
+        <v>45071.7180175</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>45073.00968416667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>600070</v>
+        <v>600041</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45070.54501985967</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>45071.83668652635</v>
+      <c r="C34" s="5" t="n">
+        <v>45071.71801929398</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>45073.00968596065</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 2}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
+          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>600080</v>
+        <v>600047</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45070.54502304424</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>45071.8366897109</v>
+      <c r="C35" s="5" t="n">
+        <v>45071.71802126157</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>45073.00968792824</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>600010</v>
+        <v>600090</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45070.54500503121</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>45071.87833836455</v>
+      <c r="C36" s="5" t="n">
+        <v>45071.71803192129</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>45073.00969858796</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}, {'Name': 'Cookware Set', 'Quantity': 1}, {'Name': 'Cutting Board', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
         </is>
       </c>
     </row>
@@ -3213,1445 +1963,1445 @@
           <t>Placed</t>
         </is>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45070.5450118964</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>45071.87834522974</v>
+      <c r="C37" s="5" t="n">
+        <v>45071.71801800926</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>45073.05135134259</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>600045</v>
+        <v>600055</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45070.54501349671</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>45071.87834683005</v>
+      <c r="C38" s="5" t="n">
+        <v>45071.71802336806</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>45073.05135670139</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+          <t>Viale XX Settembre 8, Torino, TO, 10121, Italia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>600056</v>
+        <v>600082</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45070.54501714682</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>45071.87835048015</v>
+      <c r="C39" s="5" t="n">
+        <v>45071.7180297801</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>45073.05136311342</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Yoga Mat', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Food Storage Containers', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>600086</v>
+        <v>600010</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45070.54502460825</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>45071.87835794158</v>
+      <c r="C40" s="5" t="n">
+        <v>45071.71801170139</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>45073.09301170139</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 2}, {'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 3}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>600095</v>
+        <v>600011</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45070.54502793519</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>45071.87836126853</v>
+      <c r="C41" s="5" t="n">
+        <v>45071.71801192129</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>45073.09301192129</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
+          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>600013</v>
+        <v>600074</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45070.54500554634</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>45071.92000554634</v>
+      <c r="C42" s="5" t="n">
+        <v>45071.71802770833</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>45073.09302770833</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>600025</v>
+        <v>600077</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45070.5450080532</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>45071.9200080532</v>
+      <c r="C43" s="5" t="n">
+        <v>45071.71802853009</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>45073.09302853009</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
+          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>600029</v>
+        <v>600093</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45070.54500986214</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>45071.92000986214</v>
+      <c r="C44" s="5" t="n">
+        <v>45071.71803258102</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>45073.09303258102</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 2}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Steam Iron', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bahnhofstraße 30, Stoccarda, Baden-Württemberg, 70173, Germania</t>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>600034</v>
+        <v>600049</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45070.5450116934</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>45071.9200116934</v>
+      <c r="C45" s="5" t="n">
+        <v>45071.71802162037</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>45073.13468828703</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 2}, {'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bath Towels', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
+          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>600035</v>
+        <v>600063</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45070.54501179789</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45071.92001179789</v>
+      <c r="C46" s="5" t="n">
+        <v>45071.7180252662</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>45073.13469193287</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Paint Brush Set', 'Quantity': 2}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bahnhofstraße 30, Stoccarda, Baden-Württemberg, 70173, Germania</t>
+          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>600033</v>
+        <v>600005</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45070.5450111694</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>45071.96167783607</v>
+      <c r="C47" s="5" t="n">
+        <v>45071.718010625</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>45073.17634395833</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Coffee Maker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
+          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>600057</v>
+        <v>600014</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45070.54501724757</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45071.96168391423</v>
+      <c r="C48" s="5" t="n">
+        <v>45071.7180128125</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>45073.17634614583</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
+          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>600089</v>
+        <v>600053</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45070.54502588809</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>45071.96169255476</v>
+      <c r="C49" s="5" t="n">
+        <v>45071.71802300926</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>45073.17635634259</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Power Drill', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>600022</v>
+        <v>600015</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45070.54500769722</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>45072.00334103056</v>
+      <c r="C50" s="5" t="n">
+        <v>45071.71801305556</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>45073.21801305556</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[{'Name': 'Toolbox', 'Quantity': 1}, {'Name': 'Utility Knife', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>25 Avenue des Champs-Élysées, Parigi, Île-de-France, 75008, Francia</t>
+          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>600037</v>
+        <v>600032</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45070.54501206228</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>45072.00334539561</v>
+      <c r="C51" s="5" t="n">
+        <v>45071.71801690972</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>45073.21801690972</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>600064</v>
+        <v>600042</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45070.5450186464</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>45072.00335197974</v>
+      <c r="C52" s="5" t="n">
+        <v>45071.7180194213</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>45073.2180194213</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>600100</v>
+        <v>600057</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45070.54502943074</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>45072.00336276407</v>
+      <c r="C53" s="5" t="n">
+        <v>45071.71802393519</v>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>45073.21802393519</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[{'Name': 'Meditation Cushion', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>600011</v>
+        <v>600066</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45070.54500519526</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>45072.04500519526</v>
+      <c r="C54" s="5" t="n">
+        <v>45071.71802623843</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>45073.21802623843</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>600039</v>
+        <v>600071</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45070.54501251011</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>45072.08667917677</v>
+      <c r="C55" s="5" t="n">
+        <v>45071.71802722222</v>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>45073.21802722222</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>600051</v>
+        <v>600021</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45070.54501534103</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>45072.0866820077</v>
+      <c r="C56" s="5" t="n">
+        <v>45071.7180150463</v>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>45073.25968171296</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[{'Name': 'Knife Set', 'Quantity': 1}, {'Name': 'Cutting Board', 'Quantity': 1}, {'Name': 'Paint Brush Set', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Mixing Bowl Set', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Floor Lamp', 'Quantity': 1}, {'Name': 'Paint Brush Set', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>600073</v>
+        <v>600040</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45070.54502075681</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>45072.08668742347</v>
+      <c r="C57" s="5" t="n">
+        <v>45071.7180190625</v>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>45073.25968572916</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>25 Avenue des Champs-Élysées, Parigi, Île-de-France, 75008, Francia</t>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>600094</v>
+        <v>600080</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45070.54502780666</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>45072.08669447332</v>
+      <c r="C58" s="5" t="n">
+        <v>45071.71802914352</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>45073.25969581019</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Hammer', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>600098</v>
+        <v>600012</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45070.54502894336</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>45072.08669561002</v>
+      <c r="C59" s="5" t="n">
+        <v>45071.71801238426</v>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>45073.30134571759</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>600016</v>
+        <v>600043</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45070.54500626899</v>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>45072.12833960233</v>
+      <c r="C60" s="5" t="n">
+        <v>45071.71801979167</v>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>45073.301353125</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Meditation Cushion', 'Quantity': 1}, {'Name': 'Resistance Bands', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>600017</v>
+        <v>600045</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45070.54500674688</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>45072.12834008021</v>
+      <c r="C61" s="5" t="n">
+        <v>45071.71802079861</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>45073.30135413195</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}, {'Name': 'Toolbox', 'Quantity': 1}, {'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}, {'Name': 'Utility Knife', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>600066</v>
+        <v>600067</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45070.54501907214</v>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>45072.12835240547</v>
+      <c r="C62" s="5" t="n">
+        <v>45071.71802634259</v>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>45073.30135967593</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
+          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>600071</v>
+        <v>600019</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45070.54502013626</v>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>45072.1283534696</v>
+      <c r="C63" s="5" t="n">
+        <v>45071.71801413195</v>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>45073.34301413195</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Food Storage Containers', 'Quantity': 1}, {'Name': 'Cookware Set', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
+          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>600088</v>
+        <v>600059</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45070.54502510151</v>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>45072.12835843485</v>
+      <c r="C64" s="5" t="n">
+        <v>45071.71802417824</v>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>45073.34302417824</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
+          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>600004</v>
+        <v>600100</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45070.54500357632</v>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>45072.17000357632</v>
+      <c r="C65" s="5" t="n">
+        <v>45071.71803381944</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>45073.34303381944</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>600014</v>
+        <v>600003</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45070.54500591812</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>45072.17000591812</v>
+      <c r="C66" s="5" t="n">
+        <v>45071.71801012731</v>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>45073.38467679398</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 2}, {'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>600015</v>
+        <v>600046</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45070.54500601201</v>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>45072.17000601201</v>
+      <c r="C67" s="5" t="n">
+        <v>45071.71802104167</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>45073.38468770833</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}]</t>
+          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
+          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>600043</v>
+        <v>600054</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45070.54501324943</v>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>45072.17001324943</v>
+      <c r="C68" s="5" t="n">
+        <v>45071.71802324074</v>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>45073.38468990741</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[{'Name': 'Sanding Block', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>600084</v>
+        <v>600065</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45070.54502386775</v>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>45072.17002386775</v>
+      <c r="C69" s="5" t="n">
+        <v>45071.7180259838</v>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>45073.38469265046</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Paint Roller Kit', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>18 Rue du Temple, Lione, Alvernia-Rodano-Alpi, 69002, Francia</t>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>600005</v>
+        <v>600076</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45070.54500378996</v>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>45072.21167045662</v>
+      <c r="C70" s="5" t="n">
+        <v>45071.71802842592</v>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>45073.38469509259</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screwdriver Set', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
+          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>600018</v>
+        <v>600029</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45070.54500687663</v>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>45072.2116735433</v>
+      <c r="C71" s="5" t="n">
+        <v>45071.71801655093</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>45073.42634988426</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>600026</v>
+        <v>600039</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45070.54500828926</v>
-      </c>
-      <c r="D72" s="2" t="n">
-        <v>45072.21167495593</v>
+      <c r="C72" s="5" t="n">
+        <v>45071.71801894676</v>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>45073.42635228009</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
+          <t>Rue du Lac 8, Losanna, Vaud, 1005, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>600059</v>
+        <v>600056</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45070.54501786858</v>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>45072.21168453524</v>
+      <c r="C73" s="5" t="n">
+        <v>45071.71802357639</v>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>45073.42635690972</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'Yoga Mat', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>600075</v>
+        <v>600086</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45070.54502135633</v>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>45072.211688023</v>
+      <c r="C74" s="5" t="n">
+        <v>45071.7180311574</v>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>45073.42636449074</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Cookware Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>600079</v>
+        <v>600007</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45070.54502257405</v>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>45072.21168924072</v>
+      <c r="C75" s="5" t="n">
+        <v>45071.71801084491</v>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>45073.46801084491</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[{'Name': 'Paint Brush Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>600021</v>
+        <v>600018</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45070.54500744449</v>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>45072.25334077782</v>
+      <c r="C76" s="5" t="n">
+        <v>45071.71801372685</v>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>45073.46801372685</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>600042</v>
+        <v>600031</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45070.54501313128</v>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>45072.25334646462</v>
+      <c r="C77" s="5" t="n">
+        <v>45071.71801677084</v>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>45073.46801677084</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>600048</v>
+        <v>600033</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45070.54501408228</v>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>45072.25334741562</v>
+      <c r="C78" s="5" t="n">
+        <v>45071.71801712963</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>45073.46801712963</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>600050</v>
+        <v>600044</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45070.54501442533</v>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>45072.25334775865</v>
+      <c r="C79" s="5" t="n">
+        <v>45071.71802032407</v>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>45073.46802032407</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}, {'Name': 'Resistance Bands', 'Quantity': 2}, {'Name': 'Bath Towels', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>600054</v>
+        <v>600048</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>45070.54501653656</v>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>45072.29501653656</v>
+      <c r="C80" s="5" t="n">
+        <v>45071.71802140046</v>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>45073.46802140046</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[{'Name': 'Basketball', 'Quantity': 1}, {'Name': 'Tennis Racket', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>600063</v>
+        <v>600078</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>45070.54501840874</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>45072.29501840874</v>
+      <c r="C81" s="5" t="n">
+        <v>45071.71802863426</v>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>45073.46802864583</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
+          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>600068</v>
+        <v>600092</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45070.54501948096</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>45072.29501948096</v>
+      <c r="C82" s="5" t="n">
+        <v>45071.71803247685</v>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>45073.46803247685</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Rue du Lac 8, Losanna, Vaud, 1005, Svizzera</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>600072</v>
+        <v>600002</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>45070.54502063705</v>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>45072.29502063705</v>
+      <c r="C83" s="5" t="n">
+        <v>45071.71801001157</v>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>45073.50967667824</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 2}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Toolbox', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
+          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>600019</v>
+        <v>600025</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>45070.54500707713</v>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>45072.3366737438</v>
+      <c r="C84" s="5" t="n">
+        <v>45071.71801564815</v>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>45073.50968231481</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[{'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>600046</v>
+        <v>600037</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45070.54501360733</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>45072.33668027399</v>
+      <c r="C85" s="5" t="n">
+        <v>45071.71801847222</v>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>45073.50968513889</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 3}, {'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
+          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>600067</v>
+        <v>600038</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45070.54501923572</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>45072.33668590238</v>
+      <c r="C86" s="5" t="n">
+        <v>45071.71801881945</v>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>45073.50968548611</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Paint Roller Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
+          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>600069</v>
+        <v>600051</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>45070.54501966407</v>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>45072.33668633074</v>
+      <c r="C87" s="5" t="n">
+        <v>45071.71802247685</v>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>45073.50968914352</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[{'Name': 'Paint Brush Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>600024</v>
+        <v>600068</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45070.54500790781</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>45072.37834124114</v>
+      <c r="C88" s="5" t="n">
+        <v>45071.71802673611</v>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>45073.50969340278</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
+          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>600062</v>
+        <v>600094</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45070.54501827321</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>45072.37835160654</v>
+      <c r="C89" s="5" t="n">
+        <v>45071.71803267361</v>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>45073.50969934028</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Tennis Racket', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>600065</v>
+        <v>600024</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45070.54501876146</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>45072.37835209479</v>
+      <c r="C90" s="5" t="n">
+        <v>45071.71801549769</v>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>45073.55134883102</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>600049</v>
+        <v>600096</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45070.54501432503</v>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>45072.42001432503</v>
+      <c r="C91" s="5" t="n">
+        <v>45071.71803315972</v>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>45073.55136649305</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Yoga Block', 'Quantity': 1}, {'Name': 'Soccer Ball', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>600096</v>
+        <v>600017</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45070.54502805699</v>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>45072.42002805699</v>
+      <c r="C92" s="5" t="n">
+        <v>45071.71801356482</v>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>45073.59301356482</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4662,174 +3412,174 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>600038</v>
+        <v>600020</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45070.5450121683</v>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>45072.46167883497</v>
+      <c r="C93" s="5" t="n">
+        <v>45071.718014375</v>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>45073.593014375</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>600023</v>
+        <v>600027</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45070.54500780885</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>45072.50334114219</v>
+      <c r="C94" s="5" t="n">
+        <v>45071.71801618056</v>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>45073.59301618056</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wall Clock', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
+          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>600030</v>
+        <v>600097</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>45070.54501022272</v>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>45072.50334355605</v>
+      <c r="C95" s="5" t="n">
+        <v>45071.71803331019</v>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>45073.59303331019</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Paint Brush Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>600053</v>
+        <v>600098</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>45070.54501629031</v>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>45072.50334962364</v>
+      <c r="C96" s="5" t="n">
+        <v>45071.71803341435</v>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>45073.59303341435</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[{'Name': 'Steam Iron', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Meditation Cushion', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Steam Iron', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
+          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>600082</v>
+        <v>600004</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>45070.54502351688</v>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>45072.50335685021</v>
+      <c r="C97" s="5" t="n">
+        <v>45071.71801038194</v>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>45073.63467704861</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>600099</v>
+        <v>600070</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>45070.54502929156</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>45072.5033626249</v>
+      <c r="C98" s="5" t="n">
+        <v>45071.71802697916</v>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v>45073.63469364584</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 2}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>600002</v>
+        <v>600073</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>45070.54500307139</v>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>45072.54500307139</v>
+      <c r="C99" s="5" t="n">
+        <v>45071.71802755787</v>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>45073.63469422454</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4844,53 +3594,53 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>600006</v>
+        <v>600099</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>45070.54500393078</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>45072.54500393078</v>
+      <c r="C100" s="5" t="n">
+        <v>45071.71803368055</v>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>45073.63470034723</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[{'Name': 'Utility Knife', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>600040</v>
+        <v>600062</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Placed</t>
         </is>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>45070.54501277395</v>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>45072.54501277395</v>
+      <c r="C101" s="5" t="n">
+        <v>45071.71802489583</v>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v>45073.71802489583</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'HDMI Cable', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
         </is>
       </c>
     </row>

--- a/Warehouse Manager/Database/Orders.xlsx
+++ b/Warehouse Manager/Database/Orders.xlsx
@@ -475,7 +475,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50001</v>
+        <v>50006</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -483,25 +483,25 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45071.8710108066</v>
+        <v>45072.29391293159</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>45071.8710108066</v>
+        <v>45072.29391293159</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Supplier Z</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 100}, {'Name': 'Paint Brush Set', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Meditation Cushion', 'Quantity': 100}, {'Name': 'Yoga Mat', 'Quantity': 300}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50002</v>
+        <v>50007</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -509,25 +509,25 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45071.87101085933</v>
+        <v>45072.29391294316</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>45071.87101085933</v>
+        <v>45072.29391294316</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Supplier C</t>
+          <t>Supplier Q</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 200}, {'Name': 'Wireless Headphones', 'Quantity': 300}, {'Name': 'Wireless Mouse', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Steam Iron', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50003</v>
+        <v>50011</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -535,25 +535,25 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45071.87101091742</v>
+        <v>45072.29391297736</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>45071.87102249149</v>
+        <v>45072.29392455144</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier D</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 500}, {'Name': 'Mascara', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Laptop Backpack', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50005</v>
+        <v>50016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45071.87101100563</v>
+        <v>45072.29391304119</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45071.8710225797</v>
+        <v>45072.29392461527</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Supplier B</t>
+          <t>Supplier R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 500}, {'Name': 'HDMI Cable', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50007</v>
+        <v>50015</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -587,25 +587,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45071.87101107732</v>
+        <v>45072.29391304119</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45071.87101107732</v>
+        <v>45072.29391304119</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Supplier E</t>
+          <t>Supplier L</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1000}, {'Name': 'Floor Lamp', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50011</v>
+        <v>50018</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -613,25 +613,25 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45071.87101129258</v>
+        <v>45072.29391307591</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45071.87101129258</v>
+        <v>45072.29392464999</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Supplier J</t>
+          <t>Supplier S</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Yoga Block', 'Quantity': 100}, {'Name': 'Resistance Bands', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Knife Set', 'Quantity': 100}, {'Name': 'Mixing Bowl Set', 'Quantity': 200}, {'Name': 'Cutting Board', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50012</v>
+        <v>50020</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -639,25 +639,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45071.87101132313</v>
+        <v>45072.29391310572</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45071.87101132313</v>
+        <v>45072.29391310572</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Supplier O</t>
+          <t>Supplier A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bath Towels', 'Quantity': 400}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1000}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50013</v>
+        <v>50001</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -665,25 +665,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45071.87101135292</v>
+        <v>45072.2939243917</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45071.87101135292</v>
+        <v>45072.2939243917</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 100}, {'Name': 'Paint Roller Kit', 'Quantity': 100}, {'Name': 'Paint Brush Set', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50015</v>
+        <v>50002</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -691,25 +691,25 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45071.87101151001</v>
+        <v>45072.29392440324</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>45071.87101151001</v>
+        <v>45072.29393597732</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Supplier K</t>
+          <t>Supplier R</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50018</v>
+        <v>50003</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -717,25 +717,25 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45071.87101158587</v>
+        <v>45072.29392444387</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>45071.87101158587</v>
+        <v>45072.29392444387</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Supplier O</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bath Towels', 'Quantity': 400}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Toolbox', 'Quantity': 100}, {'Name': 'Level', 'Quantity': 200}, {'Name': 'Utility Knife', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50020</v>
+        <v>50004</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45071.87101169641</v>
+        <v>45072.29392447034</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>45071.87102327048</v>
+        <v>45072.29392447034</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,13 +755,13 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[{'Name': 'Meditation Cushion', 'Quantity': 100}, {'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Yoga Block', 'Quantity': 100}, {'Name': 'Resistance Bands', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Meditation Cushion', 'Quantity': 100}, {'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Yoga Block', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>50004</v>
+        <v>50005</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -769,25 +769,25 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45071.87102254497</v>
+        <v>45072.29392448255</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>45071.87103411904</v>
+        <v>45072.29393605662</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Supplier C</t>
+          <t>Supplier W</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 200}, {'Name': 'Wireless Headphones', 'Quantity': 300}, {'Name': 'Wireless Mouse', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Blender', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>50006</v>
+        <v>50009</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45071.87102260287</v>
+        <v>45072.29392452884</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>45071.87102260287</v>
+        <v>45072.29392452884</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier W</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 300}]</t>
+          <t>[{'Name': 'Blender', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
@@ -821,25 +821,25 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45071.87102269609</v>
+        <v>45072.29392452884</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>45071.87102269609</v>
+        <v>45072.29392452884</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Supplier S</t>
+          <t>Supplier O</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[{'Name': 'Cutting Board', 'Quantity': 100}, {'Name': 'Mixing Bowl Set', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>50009</v>
+        <v>50010</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45071.8710227436</v>
+        <v>45072.29392454039</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>45071.8710227436</v>
+        <v>45072.29393611447</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier R</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 500}, {'Name': 'Mascara', 'Quantity': 500}, {'Name': 'Lipstick', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>50010</v>
+        <v>50012</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -873,25 +873,25 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45071.87102279678</v>
+        <v>45072.29392456885</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>45071.87102279678</v>
+        <v>45072.29392456885</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier L</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 500}, {'Name': 'Mascara', 'Quantity': 500}, {'Name': 'Lipstick', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 300}]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>50014</v>
+        <v>50013</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -899,25 +899,25 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45071.87102304934</v>
+        <v>45072.2939245805</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>45071.87103462341</v>
+        <v>45072.2939245805</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier L</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[{'Name': 'Level', 'Quantity': 200}, {'Name': 'Measuring Tape', 'Quantity': 500}, {'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Hammer', 'Quantity': 300}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 300}]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>50016</v>
+        <v>50014</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -925,19 +925,19 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45071.87102310723</v>
+        <v>45072.29392459213</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>45071.87102310723</v>
+        <v>45072.29393616621</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Supplier W</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[{'Name': 'Blender', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 500}, {'Name': 'Lipstick', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
@@ -951,19 +951,19 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45071.87102312523</v>
+        <v>45072.29392462684</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>45071.87102312523</v>
+        <v>45072.29393620091</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Supplier T</t>
+          <t>Supplier R</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[{'Name': 'Cookware Set', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45071.87102319468</v>
+        <v>45072.29392466156</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>45071.87102319468</v>
+        <v>45072.29393623563</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Supplier O</t>
+          <t>Supplier C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 200}, {'Name': 'Wireless Mouse', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>

--- a/Warehouse Manager/Database/Orders.xlsx
+++ b/Warehouse Manager/Database/Orders.xlsx
@@ -475,226 +475,226 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50006</v>
+        <v>50003</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45072.29391293159</v>
+        <v>45072.46355006944</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>45072.29391293159</v>
+        <v>45072.46355006944</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Supplier J</t>
+          <t>Supplier H</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Meditation Cushion', 'Quantity': 100}, {'Name': 'Yoga Mat', 'Quantity': 300}]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50007</v>
+        <v>50004</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45072.29391294316</v>
+        <v>45072.46355008102</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>45072.29391294316</v>
+        <v>45072.46355008102</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Supplier Q</t>
+          <t>Supplier Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'Name': 'Steam Iron', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Paint Brush Set', 'Quantity': 0}, {'Name': 'Paint Roller Kit', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50011</v>
+        <v>50005</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45072.29391297736</v>
+        <v>45072.46355011574</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>45072.29392455144</v>
+        <v>45072.46356168982</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Supplier D</t>
+          <t>Supplier C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Laptop Backpack', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 0}, {'Name': 'Wireless Mouse', 'Quantity': 0}, {'Name': 'Wireless Headphones', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50016</v>
+        <v>50006</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45072.29391304119</v>
+        <v>45072.46355013889</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45072.29392461527</v>
+        <v>45072.46355013889</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Supplier R</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 0}, {'Name': 'Mascara', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50015</v>
+        <v>50008</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45072.29391304119</v>
+        <v>45072.46355018519</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45072.29391304119</v>
+        <v>45072.46356175926</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50018</v>
+        <v>50009</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45072.29391307591</v>
+        <v>45072.46355019676</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45072.29392464999</v>
+        <v>45072.46355019676</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Supplier S</t>
+          <t>Supplier Q</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Knife Set', 'Quantity': 100}, {'Name': 'Mixing Bowl Set', 'Quantity': 200}, {'Name': 'Cutting Board', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Steam Iron', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50020</v>
+        <v>50010</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45072.29391310572</v>
+        <v>45072.46355021991</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45072.29391310572</v>
+        <v>45072.46356179398</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Supplier A</t>
+          <t>Supplier Z</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1000}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50001</v>
+        <v>50012</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45072.2939243917</v>
+        <v>45072.46355023148</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45072.2939243917</v>
+        <v>45072.46355023148</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Supplier Z</t>
+          <t>Supplier R</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 100}, {'Name': 'Paint Roller Kit', 'Quantity': 100}, {'Name': 'Paint Brush Set', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50002</v>
+        <v>50011</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45072.29392440324</v>
+        <v>45072.46355023148</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>45072.29393597732</v>
+        <v>45072.46356180555</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -703,293 +703,293 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50003</v>
+        <v>50013</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45072.29392444387</v>
+        <v>45072.46355024305</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>45072.29392444387</v>
+        <v>45072.46355024305</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier R</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Toolbox', 'Quantity': 100}, {'Name': 'Level', 'Quantity': 200}, {'Name': 'Utility Knife', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50004</v>
+        <v>50018</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45072.29392447034</v>
+        <v>45072.46355034722</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>45072.29392447034</v>
+        <v>45072.46356192129</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Supplier J</t>
+          <t>Supplier Q</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[{'Name': 'Meditation Cushion', 'Quantity': 100}, {'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Yoga Block', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Steam Iron', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>50005</v>
+        <v>50001</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45072.29392448255</v>
+        <v>45072.46356159722</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>45072.29393605662</v>
+        <v>45072.46356159722</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Supplier W</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[{'Name': 'Blender', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 0}, {'Name': 'Toolbox', 'Quantity': 0}, {'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Measuring Tape', 'Quantity': 0}, {'Name': 'Hammer', 'Quantity': 0}, {'Name': 'Sanding Block', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>50009</v>
+        <v>50002</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45072.29392452884</v>
+        <v>45072.46356162037</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>45072.29392452884</v>
+        <v>45072.46357319444</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Supplier W</t>
+          <t>Supplier Z</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[{'Name': 'Blender', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 0}, {'Name': 'Paint Brush Set', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>50008</v>
+        <v>50007</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45072.29392452884</v>
+        <v>45072.46356173611</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>45072.29392452884</v>
+        <v>45072.46357331018</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Supplier O</t>
+          <t>Supplier Z</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Paint Roller Kit', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>50010</v>
+        <v>50014</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45072.29392454039</v>
+        <v>45072.46356184028</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>45072.29393611447</v>
+        <v>45072.46357341435</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Supplier R</t>
+          <t>Supplier S</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Cutting Board', 'Quantity': 0}, {'Name': 'Mixing Bowl Set', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>50012</v>
+        <v>50015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45072.29392456885</v>
+        <v>45072.46356186343</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>45072.29392456885</v>
+        <v>45072.46356186343</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 300}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 0}, {'Name': 'Yoga Mat', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>50013</v>
+        <v>50016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45072.2939245805</v>
+        <v>45072.463561875</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>45072.2939245805</v>
+        <v>45072.46357344907</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier E</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 300}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 0}, {'Name': 'Floor Lamp', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>50014</v>
+        <v>50017</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45072.29392459213</v>
+        <v>45072.46356190972</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>45072.29393616621</v>
+        <v>45072.46356190972</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 500}, {'Name': 'Lipstick', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 0}, {'Name': 'Yoga Mat', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>50017</v>
+        <v>50019</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45072.29392462684</v>
+        <v>45072.46356196759</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>45072.29393620091</v>
+        <v>45072.46357354167</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Supplier R</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 0}, {'Name': 'Level', 'Quantity': 0}, {'Name': 'Toolbox', 'Quantity': 0}, {'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Screw Assortment Kit', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>50019</v>
+        <v>50020</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Dispatched</t>
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45072.29392466156</v>
+        <v>45072.46356199074</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>45072.29393623563</v>
+        <v>45072.46356199074</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Supplier C</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 200}, {'Name': 'Wireless Mouse', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 0}, {'Name': 'Yoga Mat', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>

--- a/Warehouse Manager/Database/Orders.xlsx
+++ b/Warehouse Manager/Database/Orders.xlsx
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50002</v>
+        <v>50003</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,25 +484,25 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45075.67551609954</v>
+        <v>45075.81515489583</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>45075.67551609954</v>
+        <v>45075.81516646991</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Supplier Q</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Steam Iron', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Toolbox', 'Quantity': 0}, {'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Measuring Tape', 'Quantity': 0}, {'Name': 'Sanding Block', 'Quantity': 0}, {'Name': 'Screw Assortment Kit', 'Quantity': 0}, {'Name': 'Utility Knife', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50004</v>
+        <v>50005</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45075.67551616898</v>
+        <v>45075.815155</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>45075.67551616898</v>
+        <v>45075.815155</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Supplier E</t>
+          <t>Supplier X</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 0}, {'Name': 'Floor Lamp', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Food Storage Containers', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50007</v>
+        <v>50006</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45075.67551628473</v>
+        <v>45075.81515503472</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>45075.67551628473</v>
+        <v>45075.81515503472</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier P</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 0}, {'Name': 'Lipstick', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Coffee Maker', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50010</v>
+        <v>50007</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -562,25 +562,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45075.67551637731</v>
+        <v>45075.81515525463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45075.67551637731</v>
+        <v>45075.81515525463</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Supplier P</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Maker', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 0}, {'Name': 'Level', 'Quantity': 0}, {'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Screw Assortment Kit', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50013</v>
+        <v>50008</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45075.67551662037</v>
+        <v>45075.8151553125</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45075.67552819444</v>
+        <v>45075.8151553125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 0}, {'Name': 'Bluetooth Speaker', 'Quantity': 0}, {'Name': 'Wireless Mouse', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50014</v>
+        <v>50010</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -614,25 +614,25 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45075.67551665509</v>
+        <v>45075.8151553588</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45075.67551665509</v>
+        <v>45075.81516693287</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier W</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 0}, {'Name': 'Facial Cleanser', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Blender', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50015</v>
+        <v>50011</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45075.67551668981</v>
+        <v>45075.81515538195</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45075.67552826389</v>
+        <v>45075.81516695602</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Supplier E</t>
+          <t>Supplier T</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 0}, {'Name': 'Floor Lamp', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50016</v>
+        <v>50013</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -666,25 +666,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45075.67551674769</v>
+        <v>45075.81515552083</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45075.67552832176</v>
+        <v>45075.81516709491</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Supplier Z</t>
+          <t>Supplier K</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Paint Roller Kit', 'Quantity': 0}, {'Name': 'Power Drill', 'Quantity': 0}, {'Name': 'Paint Brush Set', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 0}, {'Name': 'Essential Oil Set', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50017</v>
+        <v>50014</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45075.67551679398</v>
+        <v>45075.81515559028</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>45075.67551679398</v>
+        <v>45075.81515559028</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Supplier Z</t>
+          <t>Supplier L</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Paint Roller Kit', 'Quantity': 0}, {'Name': 'Power Drill', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 0}, {'Name': 'Facial Cleanser', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50018</v>
+        <v>50016</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -718,25 +718,25 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45075.67551681713</v>
+        <v>45075.81515574074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>45075.67552839121</v>
+        <v>45075.81516731482</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Supplier W</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Blender', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 0}, {'Name': 'Lipstick', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50020</v>
+        <v>50018</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -744,25 +744,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45075.67551690972</v>
+        <v>45075.81515599537</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>45075.67551690972</v>
+        <v>45075.81515599537</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier Z</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 0}, {'Name': 'Lipstick', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 0}, {'Name': 'Paint Roller Kit', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>50001</v>
+        <v>50019</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -770,25 +770,25 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45075.67552765046</v>
+        <v>45075.81515605324</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>45075.67552765046</v>
+        <v>45075.81515605324</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier E</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 0}, {'Name': 'Eyeshadow Palette', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Floor Lamp', 'Quantity': 0}, {'Name': 'LED Bulb', 'Quantity': 525}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>50003</v>
+        <v>50020</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -796,25 +796,25 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45075.67552770834</v>
+        <v>45075.81515609954</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>45075.67553928241</v>
+        <v>45075.81516767361</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier K</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 85}, {'Name': 'Essential Oil Set', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>50005</v>
+        <v>50001</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -822,25 +822,25 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45075.6755277662</v>
+        <v>45075.81516625</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>45075.6755277662</v>
+        <v>45075.81516625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Supplier R</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Measuring Tape', 'Quantity': 457}, {'Name': 'Hammer', 'Quantity': 256}, {'Name': 'Sanding Block', 'Quantity': 90}, {'Name': 'Screw Assortment Kit', 'Quantity': 496}, {'Name': 'Utility Knife', 'Quantity': 196}]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>50006</v>
+        <v>50002</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -848,25 +848,25 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45075.6755278125</v>
+        <v>45075.81516631944</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>45075.6755278125</v>
+        <v>45075.81516631944</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Supplier B</t>
+          <t>Supplier I</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 0}, {'Name': 'USB Flash Drive', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Tennis Racket', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>50008</v>
+        <v>50004</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45075.67552789352</v>
+        <v>45075.81516653935</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>45075.67552789352</v>
+        <v>45075.81516653935</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 0}, {'Name': 'Facial Cleanser', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 500}, {'Name': 'Yoga Block', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
@@ -900,25 +900,25 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45075.67552791667</v>
+        <v>45075.81516690972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>45075.67552791667</v>
+        <v>45075.8151784838</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Supplier W</t>
+          <t>Supplier T</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[{'Name': 'Blender', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>50011</v>
+        <v>50012</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45075.67552798611</v>
+        <v>45075.81516703704</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>45075.67552798611</v>
+        <v>45075.81517861111</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Supplier B</t>
+          <t>Supplier K</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 0}, {'Name': 'USB Flash Drive', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 500}, {'Name': 'Essential Oil Set', 'Quantity': 283}]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>50012</v>
+        <v>50015</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -952,25 +952,25 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45075.675528125</v>
+        <v>45075.81516725694</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>45075.675528125</v>
+        <v>45075.81516725694</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 0}, {'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Measuring Tape', 'Quantity': 0}, {'Name': 'Level', 'Quantity': 0}, {'Name': 'Toolbox', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 200}, {'Name': 'Wireless Mouse', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>50019</v>
+        <v>50017</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45075.67552844907</v>
+        <v>45075.8151675</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>45075.67552844907</v>
+        <v>45075.8151675</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 0}, {'Name': 'Lipstick', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Level', 'Quantity': 169}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>

--- a/Warehouse Manager/Database/Orders.xlsx
+++ b/Warehouse Manager/Database/Orders.xlsx
@@ -31,7 +31,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -434,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +483,10 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45075.81515489583</v>
+        <v>45081.12054657407</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>45075.81516646991</v>
+        <v>45081.12054657407</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Toolbox', 'Quantity': 0}, {'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Measuring Tape', 'Quantity': 0}, {'Name': 'Sanding Block', 'Quantity': 0}, {'Name': 'Screw Assortment Kit', 'Quantity': 0}, {'Name': 'Utility Knife', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 225}, {'Name': 'Measuring Tape', 'Quantity': 609}, {'Name': 'Level', 'Quantity': 106}, {'Name': 'Sanding Block', 'Quantity': 84}, {'Name': 'Screwdriver Set', 'Quantity': 42}, {'Name': 'Screw Assortment Kit', 'Quantity': 1078}]</t>
         </is>
       </c>
     </row>
@@ -510,19 +509,19 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45075.815155</v>
+        <v>45081.12054663194</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>45075.815155</v>
+        <v>45081.12055820602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Supplier X</t>
+          <t>Supplier H</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'Name': 'Food Storage Containers', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 50}, {'Name': 'Soccer Ball', 'Quantity': 140}]</t>
         </is>
       </c>
     </row>
@@ -536,19 +535,19 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45075.81515503472</v>
+        <v>45081.12054664352</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>45075.81515503472</v>
+        <v>45081.12054664352</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Supplier P</t>
+          <t>Supplier V</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Maker', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 773}]</t>
         </is>
       </c>
     </row>
@@ -562,19 +561,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45075.81515525463</v>
+        <v>45081.12054664352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45075.81515525463</v>
+        <v>45081.12054664352</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier W</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 0}, {'Name': 'Level', 'Quantity': 0}, {'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Screw Assortment Kit', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Blender', 'Quantity': 11}]</t>
         </is>
       </c>
     </row>
@@ -588,25 +587,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45075.8151553125</v>
+        <v>45081.12054666667</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45075.8151553125</v>
+        <v>45081.12055824074</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Supplier C</t>
+          <t>Supplier Z</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 0}, {'Name': 'Paint Brush Set', 'Quantity': 84}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50010</v>
+        <v>50001</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -614,25 +613,25 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45075.8151553588</v>
+        <v>45081.12055807871</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45075.81516693287</v>
+        <v>45081.12056965278</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Supplier W</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Blender', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Hammer', 'Quantity': 291}, {'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Measuring Tape', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50011</v>
+        <v>50002</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -640,25 +639,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45075.81515538195</v>
+        <v>45081.12055811343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45075.81516695602</v>
+        <v>45081.12055811343</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Supplier T</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'Name': 'Cookware Set', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 68}, {'Name': 'Yoga Block', 'Quantity': 28}, {'Name': 'Resistance Bands', 'Quantity': 272}, {'Name': 'Meditation Cushion', 'Quantity': 32}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50013</v>
+        <v>50004</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -666,25 +665,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45075.81515552083</v>
+        <v>45081.12055819445</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45075.81516709491</v>
+        <v>45081.12055819445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Supplier K</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 0}, {'Name': 'Essential Oil Set', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Level', 'Quantity': 200}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Toolbox', 'Quantity': 0}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50014</v>
+        <v>50009</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -692,25 +691,25 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45075.81515559028</v>
+        <v>45081.12055825232</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>45075.81515559028</v>
+        <v>45081.12055825232</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Supplier L</t>
+          <t>Supplier P</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 0}, {'Name': 'Facial Cleanser', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Coffee Maker', 'Quantity': 0}, {'Name': 'Slow Cooker', 'Quantity': 48}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50016</v>
+        <v>50010</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -718,279 +717,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45075.81515574074</v>
+        <v>45081.12055826389</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>45075.81516731482</v>
+        <v>45081.12055826389</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier S</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 0}, {'Name': 'Lipstick', 'Quantity': 0}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>50018</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>45075.81515599537</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>45075.81515599537</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Supplier Z</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 0}, {'Name': 'Paint Roller Kit', 'Quantity': 0}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>50019</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>45075.81515605324</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>45075.81515605324</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Supplier E</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Floor Lamp', 'Quantity': 0}, {'Name': 'LED Bulb', 'Quantity': 525}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>50020</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>45075.81515609954</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>45075.81516767361</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Supplier K</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 85}, {'Name': 'Essential Oil Set', 'Quantity': 0}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>50001</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>45075.81516625</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>45075.81516625</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Screwdriver Set', 'Quantity': 0}, {'Name': 'Measuring Tape', 'Quantity': 457}, {'Name': 'Hammer', 'Quantity': 256}, {'Name': 'Sanding Block', 'Quantity': 90}, {'Name': 'Screw Assortment Kit', 'Quantity': 496}, {'Name': 'Utility Knife', 'Quantity': 196}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>50002</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>45075.81516631944</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>45075.81516631944</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Supplier I</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Tennis Racket', 'Quantity': 100}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>50004</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>45075.81516653935</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>45075.81516653935</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Supplier J</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 500}, {'Name': 'Yoga Block', 'Quantity': 100}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>50009</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>45075.81516690972</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>45075.8151784838</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Supplier T</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Cookware Set', 'Quantity': 100}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>50012</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>45075.81516703704</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>45075.81517861111</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Supplier K</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 500}, {'Name': 'Essential Oil Set', 'Quantity': 283}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>50015</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>45075.81516725694</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>45075.81516725694</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 200}, {'Name': 'Wireless Mouse', 'Quantity': 200}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>50017</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>45075.8151675</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>45075.8151675</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Level', 'Quantity': 169}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Cutting Board', 'Quantity': 11}, {'Name': 'Mixing Bowl Set', 'Quantity': 84}, {'Name': 'Knife Set', 'Quantity': 0}]</t>
         </is>
       </c>
     </row>

--- a/Warehouse Manager/Database/Orders.xlsx
+++ b/Warehouse Manager/Database/Orders.xlsx
@@ -475,18 +475,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50003</v>
+        <v>50004</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45081.12054657407</v>
+        <v>45081.97726997685</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>45081.12054657407</v>
+        <v>45081.97726997685</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,189 +495,189 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Utility Knife', 'Quantity': 225}, {'Name': 'Measuring Tape', 'Quantity': 609}, {'Name': 'Level', 'Quantity': 106}, {'Name': 'Sanding Block', 'Quantity': 84}, {'Name': 'Screwdriver Set', 'Quantity': 42}, {'Name': 'Screw Assortment Kit', 'Quantity': 1078}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 500}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Level', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50005</v>
+        <v>50006</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45081.12054663194</v>
+        <v>45081.97727008102</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>45081.12055820602</v>
+        <v>45081.97728165509</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Supplier H</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'Name': 'Basketball', 'Quantity': 50}, {'Name': 'Soccer Ball', 'Quantity': 140}]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Toolbox', 'Quantity': 100}, {'Name': 'Level', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50006</v>
+        <v>50007</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45081.12054664352</v>
+        <v>45081.97727010417</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>45081.12054664352</v>
+        <v>45081.97728167824</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Supplier V</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 773}]</t>
+          <t>[{'Name': 'Yoga Block', 'Quantity': 100}, {'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Resistance Bands', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50007</v>
+        <v>50001</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45081.12054664352</v>
+        <v>45081.97728141204</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45081.12054664352</v>
+        <v>45081.97728141204</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Supplier W</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'Name': 'Blender', 'Quantity': 11}]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Toolbox', 'Quantity': 100}, {'Name': 'Level', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50008</v>
+        <v>50002</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45081.12054666667</v>
+        <v>45081.97728148148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45081.12055824074</v>
+        <v>45081.97729305556</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Supplier Z</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 0}, {'Name': 'Paint Brush Set', 'Quantity': 84}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 500}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Utility Knife', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50001</v>
+        <v>50003</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45081.12055807871</v>
+        <v>45081.97728149305</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45081.12056965278</v>
+        <v>45081.97729306713</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Hammer', 'Quantity': 291}, {'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Measuring Tape', 'Quantity': 500}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1000}, {'Name': 'AAA Batteries', 'Quantity': 1000}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50002</v>
+        <v>50005</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45081.12055811343</v>
+        <v>45081.9772815625</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45081.12055811343</v>
+        <v>45081.97729313657</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Supplier J</t>
+          <t>Supplier I</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 68}, {'Name': 'Yoga Block', 'Quantity': 28}, {'Name': 'Resistance Bands', 'Quantity': 272}, {'Name': 'Meditation Cushion', 'Quantity': 32}]</t>
+          <t>[{'Name': 'Tennis Racket', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50004</v>
+        <v>50008</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45081.12055819445</v>
+        <v>45081.97728171296</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45081.12055819445</v>
+        <v>45081.97728171296</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Level', 'Quantity': 200}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Toolbox', 'Quantity': 0}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 500}, {'Name': 'Eyeshadow Palette', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
@@ -687,23 +687,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45081.12055825232</v>
+        <v>45081.97728172454</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>45081.12055825232</v>
+        <v>45081.97728172454</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Supplier P</t>
+          <t>Supplier M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Maker', 'Quantity': 0}, {'Name': 'Slow Cooker', 'Quantity': 48}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 500}, {'Name': 'Eyeshadow Palette', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
@@ -713,14 +713,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dispatched</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45081.12055826389</v>
+        <v>45081.97728175926</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>45081.12055826389</v>
+        <v>45081.97729333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Cutting Board', 'Quantity': 11}, {'Name': 'Mixing Bowl Set', 'Quantity': 84}, {'Name': 'Knife Set', 'Quantity': 0}]</t>
+          <t>[{'Name': 'Cutting Board', 'Quantity': 100}, {'Name': 'Knife Set', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>600006</v>
+        <v>600056</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45071.71801074074</v>
+        <v>45081.97733482905</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>45072.71801074074</v>
+        <v>45082.97733482905</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>600030</v>
+        <v>600074</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -820,25 +820,25 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45071.71801666667</v>
+        <v>45081.97733907991</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>45072.71801666667</v>
+        <v>45082.97733907991</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>600050</v>
+        <v>600088</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -846,14 +846,14 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45071.71802175926</v>
+        <v>45081.97734285107</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>45072.71802175926</v>
+        <v>45082.97734285107</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Basketball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -864,7 +864,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>600058</v>
+        <v>600037</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -872,10 +872,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45071.71802407407</v>
+        <v>45081.9773301019</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45072.71802407407</v>
+        <v>45083.01899676857</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -884,13 +884,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>600088</v>
+        <v>600038</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -898,25 +898,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45071.71803155092</v>
+        <v>45081.97733026057</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45072.71803155092</v>
+        <v>45083.01899692723</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>600075</v>
+        <v>600082</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45071.71802827546</v>
+        <v>45081.97734127659</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45072.75969494213</v>
+        <v>45083.01900794325</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 2}, {'Name': 'Eyeshadow Palette', 'Quantity': 2}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Blender', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Coffee Maker', 'Quantity': 1}, {'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>600087</v>
+        <v>600099</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45071.71803144676</v>
+        <v>45081.97734535626</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45072.75969811343</v>
+        <v>45083.01901202293</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Laptop Backpack', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>600009</v>
+        <v>600049</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45071.71801111111</v>
+        <v>45081.97733299922</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45072.80134444444</v>
+        <v>45083.06066633256</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
+          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>600026</v>
+        <v>600052</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1002,25 +1002,25 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45071.71801575232</v>
+        <v>45081.97733372801</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>45072.80134908565</v>
+        <v>45083.06066706134</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Utility Knife', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
+          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>600034</v>
+        <v>600006</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45071.71801726852</v>
+        <v>45081.97731949675</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>45072.80135060185</v>
+        <v>45083.10231949675</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Maker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Paint Roller Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>600084</v>
+        <v>600014</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1054,25 +1054,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45071.7180305787</v>
+        <v>45081.97732184584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>45072.80136391204</v>
+        <v>45083.10232184584</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 2}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>600089</v>
+        <v>600044</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1080,25 +1080,25 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45071.71803181713</v>
+        <v>45081.97733157426</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>45072.80136515047</v>
+        <v>45083.10233157426</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}, {'Name': 'Steam Iron', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>600013</v>
+        <v>600046</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1106,25 +1106,25 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45071.7180125463</v>
+        <v>45081.97733215705</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>45072.8430125463</v>
+        <v>45083.10233215705</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 1}, {'Name': 'Toolbox', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
+          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>600016</v>
+        <v>600062</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45071.71801315972</v>
+        <v>45081.97733584476</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>45072.84301315972</v>
+        <v>45083.10233584476</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Calle Alcalá 25, Madrid, Madrid, 28014, Spagna</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>600022</v>
+        <v>600027</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1158,25 +1158,25 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45071.71801527778</v>
+        <v>45081.97732732334</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>45072.84301527778</v>
+        <v>45083.14399399001</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 3}, {'Name': 'Floor Lamp', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>600023</v>
+        <v>600050</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1184,25 +1184,25 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45071.71801539352</v>
+        <v>45081.97733346021</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>45072.84301539352</v>
+        <v>45083.14400012688</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[{'Name': 'Basketball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>600069</v>
+        <v>600053</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45071.71802685185</v>
+        <v>45081.97733415545</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>45072.84302685185</v>
+        <v>45083.14400082212</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[{'Name': 'Basketball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>600001</v>
+        <v>600094</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1236,25 +1236,25 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45071.71800975694</v>
+        <v>45081.97734393072</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>45072.88467642361</v>
+        <v>45083.14401059738</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}, {'Name': 'Basketball', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
+          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>600072</v>
+        <v>600018</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1262,25 +1262,25 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45071.7180274537</v>
+        <v>45081.97732331251</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>45072.88469412037</v>
+        <v>45083.18565664584</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
+          <t>18 Rue du Temple, Lione, Alvernia-Rodano-Alpi, 69002, Francia</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>600008</v>
+        <v>600010</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45071.71801099537</v>
+        <v>45081.97732100025</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>45072.92634432871</v>
+        <v>45083.22732100025</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
+          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>600061</v>
+        <v>600039</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1314,25 +1314,25 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>45071.71802453704</v>
+        <v>45081.97733072827</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>45072.92635787037</v>
+        <v>45083.22733072827</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>600079</v>
+        <v>600042</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1340,25 +1340,25 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>45071.71802877315</v>
+        <v>45081.97733114909</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>45072.92636210648</v>
+        <v>45083.22733114909</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>600081</v>
+        <v>600071</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1366,25 +1366,25 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45071.71802924768</v>
+        <v>45081.97733805358</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>45072.92636258102</v>
+        <v>45083.22733805358</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>600085</v>
+        <v>600051</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1392,25 +1392,25 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>45071.71803079861</v>
+        <v>45081.97733359742</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>45072.92636413194</v>
+        <v>45083.26900026409</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
+          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>600091</v>
+        <v>600067</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1418,25 +1418,25 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>45071.71803233797</v>
+        <v>45081.97733683346</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>45072.92636567129</v>
+        <v>45083.26900350013</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Yoga Mat', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>600095</v>
+        <v>600080</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1444,25 +1444,25 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45071.71803280093</v>
+        <v>45081.97734053553</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>45072.92636613426</v>
+        <v>45083.2690072022</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
+          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>600028</v>
+        <v>600098</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1470,14 +1470,14 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45071.71801628472</v>
+        <v>45081.97734519485</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>45072.96801628472</v>
+        <v>45083.26901186151</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 2}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1488,7 +1488,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>600052</v>
+        <v>600013</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1496,25 +1496,25 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>45071.71802287037</v>
+        <v>45081.97732153818</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>45072.96802287037</v>
+        <v>45083.31065487151</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[{'Name': 'Level', 'Quantity': 1}, {'Name': 'Screwdriver Set', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>600060</v>
+        <v>600017</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1522,25 +1522,25 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>45071.71802428241</v>
+        <v>45081.97732316011</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>45072.96802428241</v>
+        <v>45083.31065649345</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'Wireless Mouse', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>600064</v>
+        <v>600023</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1548,25 +1548,25 @@
         </is>
       </c>
       <c r="C31" s="5" t="n">
-        <v>45071.71802538195</v>
+        <v>45081.97732497176</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>45072.96802538195</v>
+        <v>45083.31065830509</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>600083</v>
+        <v>600033</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1574,25 +1574,25 @@
         </is>
       </c>
       <c r="C32" s="5" t="n">
-        <v>45071.7180302199</v>
+        <v>45081.97732889837</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>45072.9680302199</v>
+        <v>45083.3106622317</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 3}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
+          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>600035</v>
+        <v>600075</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1600,25 +1600,25 @@
         </is>
       </c>
       <c r="C33" s="5" t="n">
-        <v>45071.7180175</v>
+        <v>45081.97733939763</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>45073.00968416667</v>
+        <v>45083.31067273096</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Meditation Cushion', 'Quantity': 1}, {'Name': 'Food Storage Containers', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>600041</v>
+        <v>600089</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1626,25 +1626,25 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>45071.71801929398</v>
+        <v>45081.97734298323</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>45073.00968596065</v>
+        <v>45083.31067631656</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
+          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>600047</v>
+        <v>600007</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1652,25 +1652,25 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>45071.71802126157</v>
+        <v>45081.97732023213</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>45073.00968792824</v>
+        <v>45083.35232023213</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Steam Iron', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 2}, {'Name': 'Food Storage Containers', 'Quantity': 1}, {'Name': 'Bed Sheets', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
+          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>600090</v>
+        <v>600047</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1678,25 +1678,25 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45071.71803192129</v>
+        <v>45081.97733229047</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>45073.00969858796</v>
+        <v>45083.39399896871</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Hauptstraße 10, Berlino, Berlino, 10115, Germania</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>600036</v>
+        <v>600054</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1704,25 +1704,25 @@
         </is>
       </c>
       <c r="C37" s="5" t="n">
-        <v>45071.71801800926</v>
+        <v>45081.97733440186</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>45073.05135134259</v>
+        <v>45083.39400106853</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>600055</v>
+        <v>600060</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1730,25 +1730,25 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>45071.71802336806</v>
+        <v>45081.97733540028</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>45073.05135670139</v>
+        <v>45083.39400206695</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wall Clock', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Viale XX Settembre 8, Torino, TO, 10121, Italia</t>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>600082</v>
+        <v>600020</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C39" s="5" t="n">
-        <v>45071.7180297801</v>
+        <v>45081.97732408339</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>45073.05136311342</v>
+        <v>45083.43565741673</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[{'Name': 'Food Storage Containers', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>600010</v>
+        <v>600028</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1782,25 +1782,25 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>45071.71801170139</v>
+        <v>45081.97732750893</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>45073.09301170139</v>
+        <v>45083.43566084227</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 3}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>600011</v>
+        <v>600041</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1808,25 +1808,25 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>45071.71801192129</v>
+        <v>45081.97733100275</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>45073.09301192129</v>
+        <v>45083.43566433609</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>600074</v>
+        <v>600076</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1834,25 +1834,25 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>45071.71802770833</v>
+        <v>45081.97733954268</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>45073.09302770833</v>
+        <v>45083.43567287602</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>600077</v>
+        <v>600086</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1860,25 +1860,25 @@
         </is>
       </c>
       <c r="C43" s="5" t="n">
-        <v>45071.71802853009</v>
+        <v>45081.97734224982</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>45073.09302853009</v>
+        <v>45083.43567558315</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>600093</v>
+        <v>600002</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1886,25 +1886,25 @@
         </is>
       </c>
       <c r="C44" s="5" t="n">
-        <v>45071.71803258102</v>
+        <v>45081.97731805067</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>45073.09303258102</v>
+        <v>45083.47731805067</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[{'Name': 'Steam Iron', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wall Clock', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>600049</v>
+        <v>600009</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1912,25 +1912,25 @@
         </is>
       </c>
       <c r="C45" s="5" t="n">
-        <v>45071.71802162037</v>
+        <v>45081.97732070232</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>45073.13468828703</v>
+        <v>45083.47732070232</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bath Towels', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>600063</v>
+        <v>600100</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1938,25 +1938,25 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>45071.7180252662</v>
+        <v>45081.97734548193</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>45073.13469193287</v>
+        <v>45083.47734548193</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[{'Name': 'Paint Brush Set', 'Quantity': 2}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Paint Brush Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
+          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>600005</v>
+        <v>600003</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1964,25 +1964,25 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>45071.718010625</v>
+        <v>45081.97731872375</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>45073.17634395833</v>
+        <v>45083.51898539042</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[{'Name': 'Basketball', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>600014</v>
+        <v>600016</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1990,25 +1990,25 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>45071.7180128125</v>
+        <v>45081.9773225395</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>45073.17634614583</v>
+        <v>45083.51898920617</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'Measuring Tape', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
+          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>600053</v>
+        <v>600019</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2016,25 +2016,25 @@
         </is>
       </c>
       <c r="C49" s="5" t="n">
-        <v>45071.71802300926</v>
+        <v>45081.9773236083</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>45073.17635634259</v>
+        <v>45083.51899027496</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
+          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>600015</v>
+        <v>600025</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2042,25 +2042,25 @@
         </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>45071.71801305556</v>
+        <v>45081.97732668113</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>45073.21801305556</v>
+        <v>45083.5189933478</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 2}, {'Name': 'Hammer', 'Quantity': 2}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>600032</v>
+        <v>600026</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2068,25 +2068,25 @@
         </is>
       </c>
       <c r="C51" s="5" t="n">
-        <v>45071.71801690972</v>
+        <v>45081.97732680441</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>45073.21801690972</v>
+        <v>45083.51899347108</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
+          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>600042</v>
+        <v>600040</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2094,25 +2094,25 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>45071.7180194213</v>
+        <v>45081.97733085513</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>45073.2180194213</v>
+        <v>45083.51899752179</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>600057</v>
+        <v>600048</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2120,25 +2120,25 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>45071.71802393519</v>
+        <v>45081.97733276853</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>45073.21802393519</v>
+        <v>45083.5189994352</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[{'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 3}]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>600066</v>
+        <v>600055</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2146,25 +2146,25 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>45071.71802623843</v>
+        <v>45081.97733468543</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>45073.21802623843</v>
+        <v>45083.51900135209</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>600071</v>
+        <v>600077</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2172,25 +2172,25 @@
         </is>
       </c>
       <c r="C55" s="5" t="n">
-        <v>45071.71802722222</v>
+        <v>45081.97733968758</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>45073.21802722222</v>
+        <v>45083.51900635425</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 2}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>600021</v>
+        <v>600032</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2198,25 +2198,25 @@
         </is>
       </c>
       <c r="C56" s="5" t="n">
-        <v>45071.7180150463</v>
+        <v>45081.97732876093</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>45073.25968171296</v>
+        <v>45083.56066209426</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[{'Name': 'Floor Lamp', 'Quantity': 1}, {'Name': 'Paint Brush Set', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
+          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>600040</v>
+        <v>600045</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2224,25 +2224,25 @@
         </is>
       </c>
       <c r="C57" s="5" t="n">
-        <v>45071.7180190625</v>
+        <v>45081.97733170564</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>45073.25968572916</v>
+        <v>45083.56066503897</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>600080</v>
+        <v>600058</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2250,25 +2250,25 @@
         </is>
       </c>
       <c r="C58" s="5" t="n">
-        <v>45071.71802914352</v>
+        <v>45081.97733510318</v>
       </c>
       <c r="D58" s="5" t="n">
-        <v>45073.25969581019</v>
+        <v>45083.56066843652</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Hammer', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>600012</v>
+        <v>600063</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2276,25 +2276,25 @@
         </is>
       </c>
       <c r="C59" s="5" t="n">
-        <v>45071.71801238426</v>
+        <v>45081.9773361428</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>45073.30134571759</v>
+        <v>45083.56066948787</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>600043</v>
+        <v>600065</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="C60" s="5" t="n">
-        <v>45071.71801979167</v>
+        <v>45081.97733649085</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>45073.301353125</v>
+        <v>45083.56066982418</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Meditation Cushion', 'Quantity': 1}, {'Name': 'Resistance Bands', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>600045</v>
+        <v>600078</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2328,25 +2328,25 @@
         </is>
       </c>
       <c r="C61" s="5" t="n">
-        <v>45071.71802079861</v>
+        <v>45081.97734027931</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>45073.30135413195</v>
+        <v>45083.56067361265</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}, {'Name': 'Utility Knife', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 2}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'Paint Roller Kit', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
+          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>600067</v>
+        <v>600081</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2354,25 +2354,25 @@
         </is>
       </c>
       <c r="C62" s="5" t="n">
-        <v>45071.71802634259</v>
+        <v>45081.97734066819</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>45073.30135967593</v>
+        <v>45083.56067400153</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>600019</v>
+        <v>600097</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2380,25 +2380,25 @@
         </is>
       </c>
       <c r="C63" s="5" t="n">
-        <v>45071.71801413195</v>
+        <v>45081.97734477186</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>45073.34301413195</v>
+        <v>45083.5606781052</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[{'Name': 'Food Storage Containers', 'Quantity': 1}, {'Name': 'Cookware Set', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>600059</v>
+        <v>600004</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2406,25 +2406,25 @@
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>45071.71802417824</v>
+        <v>45081.97731887714</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>45073.34302417824</v>
+        <v>45083.60231887714</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
+          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>600100</v>
+        <v>600022</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2432,25 +2432,25 @@
         </is>
       </c>
       <c r="C65" s="5" t="n">
-        <v>45071.71803381944</v>
+        <v>45081.97732481169</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>45073.34303381944</v>
+        <v>45083.60232481169</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 2}, {'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>600003</v>
+        <v>600066</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2458,25 +2458,25 @@
         </is>
       </c>
       <c r="C66" s="5" t="n">
-        <v>45071.71801012731</v>
+        <v>45081.97733666513</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>45073.38467679398</v>
+        <v>45083.60233667688</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>600046</v>
+        <v>600079</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2484,25 +2484,25 @@
         </is>
       </c>
       <c r="C67" s="5" t="n">
-        <v>45071.71802104167</v>
+        <v>45081.97734041029</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>45073.38468770833</v>
+        <v>45083.60234041029</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>600054</v>
+        <v>600095</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2510,25 +2510,25 @@
         </is>
       </c>
       <c r="C68" s="5" t="n">
-        <v>45071.71802324074</v>
+        <v>45081.97734419716</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>45073.38468990741</v>
+        <v>45083.60234419716</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
+          <t>Bahnhofstraße 30, Stoccarda, Baden-Württemberg, 70173, Germania</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>600065</v>
+        <v>600096</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2536,25 +2536,25 @@
         </is>
       </c>
       <c r="C69" s="5" t="n">
-        <v>45071.7180259838</v>
+        <v>45081.97734464546</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>45073.38469265046</v>
+        <v>45083.60234464546</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[{'Name': 'Level', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Paint Roller Kit', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 3}]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
+          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>600076</v>
+        <v>600034</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C70" s="5" t="n">
-        <v>45071.71802842592</v>
+        <v>45081.97732900733</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>45073.38469509259</v>
+        <v>45083.64399567399</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>600029</v>
+        <v>600059</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2588,25 +2588,25 @@
         </is>
       </c>
       <c r="C71" s="5" t="n">
-        <v>45071.71801655093</v>
+        <v>45081.97733526974</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>45073.42634988426</v>
+        <v>45083.64400193641</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
+          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>600039</v>
+        <v>600029</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2614,25 +2614,25 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>45071.71801894676</v>
+        <v>45081.97732762909</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>45073.42635228009</v>
+        <v>45083.6856609744</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rue du Lac 8, Losanna, Vaud, 1005, Svizzera</t>
+          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>600056</v>
+        <v>600030</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2640,25 +2640,25 @@
         </is>
       </c>
       <c r="C73" s="5" t="n">
-        <v>45071.71802357639</v>
+        <v>45081.97732777691</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>45073.42635690972</v>
+        <v>45083.68566111024</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
+          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>600086</v>
+        <v>600070</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2666,25 +2666,25 @@
         </is>
       </c>
       <c r="C74" s="5" t="n">
-        <v>45071.7180311574</v>
+        <v>45081.97733792052</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>45073.42636449074</v>
+        <v>45083.68567125386</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
+          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>600007</v>
+        <v>600084</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="C75" s="5" t="n">
-        <v>45071.71801084491</v>
+        <v>45081.9773419815</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>45073.46801084491</v>
+        <v>45083.68567531482</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 2}, {'Name': 'Tennis Racket', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>600018</v>
+        <v>600085</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2718,25 +2718,25 @@
         </is>
       </c>
       <c r="C76" s="5" t="n">
-        <v>45071.71801372685</v>
+        <v>45081.97734211489</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>45073.46801372685</v>
+        <v>45083.68567544823</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>600031</v>
+        <v>600005</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2744,25 +2744,25 @@
         </is>
       </c>
       <c r="C77" s="5" t="n">
-        <v>45071.71801677084</v>
+        <v>45081.97731934583</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>45073.46801677084</v>
+        <v>45083.72731934583</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
+          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>600033</v>
+        <v>600068</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2770,25 +2770,25 @@
         </is>
       </c>
       <c r="C78" s="5" t="n">
-        <v>45071.71801712963</v>
+        <v>45081.97733698066</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>45073.46801712963</v>
+        <v>45083.72733698066</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
+          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>600044</v>
+        <v>600087</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2796,25 +2796,25 @@
         </is>
       </c>
       <c r="C79" s="5" t="n">
-        <v>45071.71802032407</v>
+        <v>45081.9773425388</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>45073.46802032407</v>
+        <v>45083.7273425388</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}, {'Name': 'Resistance Bands', 'Quantity': 2}, {'Name': 'Bath Towels', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
+          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>600048</v>
+        <v>600021</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2822,25 +2822,25 @@
         </is>
       </c>
       <c r="C80" s="5" t="n">
-        <v>45071.71802140046</v>
+        <v>45081.97732422471</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>45073.46802140046</v>
+        <v>45083.76899089137</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>600078</v>
+        <v>600035</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2848,25 +2848,25 @@
         </is>
       </c>
       <c r="C81" s="5" t="n">
-        <v>45071.71802863426</v>
+        <v>45081.97732967817</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>45073.46802864583</v>
+        <v>45083.76899634484</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 2}, {'Name': 'Mascara', 'Quantity': 2}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>600092</v>
+        <v>600073</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2874,25 +2874,25 @@
         </is>
       </c>
       <c r="C82" s="5" t="n">
-        <v>45071.71803247685</v>
+        <v>45081.97733893494</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>45073.46803247685</v>
+        <v>45083.76900560161</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Paint Brush Set', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>600002</v>
+        <v>600092</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2900,25 +2900,25 @@
         </is>
       </c>
       <c r="C83" s="5" t="n">
-        <v>45071.71801001157</v>
+        <v>45081.977343408</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>45073.50967667824</v>
+        <v>45083.76901007466</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Toolbox', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>600025</v>
+        <v>600001</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2926,25 +2926,25 @@
         </is>
       </c>
       <c r="C84" s="5" t="n">
-        <v>45071.71801564815</v>
+        <v>45081.97731789418</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>45073.50968231481</v>
+        <v>45083.81065122751</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
+          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>600037</v>
+        <v>600072</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2952,25 +2952,25 @@
         </is>
       </c>
       <c r="C85" s="5" t="n">
-        <v>45071.71801847222</v>
+        <v>45081.97733849967</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>45073.50968513889</v>
+        <v>45083.81067183299</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 3}, {'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>600038</v>
+        <v>600093</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2978,25 +2978,25 @@
         </is>
       </c>
       <c r="C86" s="5" t="n">
-        <v>45071.71801881945</v>
+        <v>45081.97734357722</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>45073.50968548611</v>
+        <v>45083.81067691911</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[{'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Paint Roller Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>600051</v>
+        <v>600011</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3004,25 +3004,25 @@
         </is>
       </c>
       <c r="C87" s="5" t="n">
-        <v>45071.71802247685</v>
+        <v>45081.97732113329</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>45073.50968914352</v>
+        <v>45083.85232113329</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
+          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>600068</v>
+        <v>600057</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3030,25 +3030,25 @@
         </is>
       </c>
       <c r="C88" s="5" t="n">
-        <v>45071.71802673611</v>
+        <v>45081.9773349828</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>45073.50969340278</v>
+        <v>45083.8523349828</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Sanding Block', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>600094</v>
+        <v>600064</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3056,25 +3056,25 @@
         </is>
       </c>
       <c r="C89" s="5" t="n">
-        <v>45071.71803267361</v>
+        <v>45081.97733629373</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>45073.50969934028</v>
+        <v>45083.85233629373</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[{'Name': 'Tennis Racket', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
+          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>600024</v>
+        <v>600083</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3082,25 +3082,25 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>45071.71801549769</v>
+        <v>45081.97734158169</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>45073.55134883102</v>
+        <v>45083.85234158169</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Bed Sheets', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
+          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>600096</v>
+        <v>600012</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3108,25 +3108,25 @@
         </is>
       </c>
       <c r="C91" s="5" t="n">
-        <v>45071.71803315972</v>
+        <v>45081.97732139316</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>45073.55136649305</v>
+        <v>45083.89398805983</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Block', 'Quantity': 1}, {'Name': 'Soccer Ball', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>600017</v>
+        <v>600031</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3134,25 +3134,25 @@
         </is>
       </c>
       <c r="C92" s="5" t="n">
-        <v>45071.71801356482</v>
+        <v>45081.97732862055</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>45073.59301356482</v>
+        <v>45083.89399528721</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[{'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}, {'Name': 'Bath Towels', 'Quantity': 2}, {'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
+          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>600020</v>
+        <v>600036</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3160,25 +3160,25 @@
         </is>
       </c>
       <c r="C93" s="5" t="n">
-        <v>45071.718014375</v>
+        <v>45081.97732998324</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>45073.593014375</v>
+        <v>45083.89399664991</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>600027</v>
+        <v>600069</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="C94" s="5" t="n">
-        <v>45071.71801618056</v>
+        <v>45081.97733745033</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>45073.59301618056</v>
+        <v>45083.894004117</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 2}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
+          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>600097</v>
+        <v>600090</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3212,25 +3212,25 @@
         </is>
       </c>
       <c r="C95" s="5" t="n">
-        <v>45071.71803331019</v>
+        <v>45081.97734311665</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>45073.59303331019</v>
+        <v>45083.89400979489</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
+          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>600098</v>
+        <v>600091</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3238,25 +3238,25 @@
         </is>
       </c>
       <c r="C96" s="5" t="n">
-        <v>45071.71803341435</v>
+        <v>45081.97734327496</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>45073.59303341435</v>
+        <v>45083.89400994163</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[{'Name': 'Steam Iron', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
+          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>600004</v>
+        <v>600015</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3264,25 +3264,25 @@
         </is>
       </c>
       <c r="C97" s="5" t="n">
-        <v>45071.71801038194</v>
+        <v>45081.97732212132</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>45073.63467704861</v>
+        <v>45083.93565545465</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>600070</v>
+        <v>600043</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3290,25 +3290,25 @@
         </is>
       </c>
       <c r="C98" s="5" t="n">
-        <v>45071.71802697916</v>
+        <v>45081.9773313008</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>45073.63469364584</v>
+        <v>45083.93566463413</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>600073</v>
+        <v>600008</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3316,25 +3316,25 @@
         </is>
       </c>
       <c r="C99" s="5" t="n">
-        <v>45071.71802755787</v>
+        <v>45081.97732054578</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>45073.63469422454</v>
+        <v>45083.97732054578</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Essential Oil Set', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>600099</v>
+        <v>600024</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="C100" s="5" t="n">
-        <v>45071.71803368055</v>
+        <v>45081.97732575457</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>45073.63470034723</v>
+        <v>45083.97732575457</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 2}, {'Name': 'AA Batteries', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>600062</v>
+        <v>600061</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3368,19 +3368,19 @@
         </is>
       </c>
       <c r="C101" s="5" t="n">
-        <v>45071.71802489583</v>
+        <v>45081.97733556274</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>45073.71802489583</v>
+        <v>45083.97733556274</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'HDMI Cable', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Coffee Maker', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
         </is>
       </c>
     </row>

--- a/Warehouse Manager/Database/Orders.xlsx
+++ b/Warehouse Manager/Database/Orders.xlsx
@@ -475,7 +475,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -483,25 +483,25 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45081.97726997685</v>
+        <v>45082.02346559028</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>45081.97726997685</v>
+        <v>45082.02347716435</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier E</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 500}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Level', 'Quantity': 200}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1000}, {'Name': 'Floor Lamp', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -509,25 +509,25 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45081.97727008102</v>
+        <v>45082.02346563657</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>45081.97728165509</v>
+        <v>45082.02347721065</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Toolbox', 'Quantity': 100}, {'Name': 'Level', 'Quantity': 200}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1000}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50007</v>
+        <v>50008</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -535,25 +535,25 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45081.97727010417</v>
+        <v>45082.02346574074</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>45081.97728167824</v>
+        <v>45082.02346574074</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Supplier J</t>
+          <t>Supplier O</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Yoga Block', 'Quantity': 100}, {'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Resistance Bands', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50001</v>
+        <v>50009</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45081.97728141204</v>
+        <v>45082.02346578704</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45081.97728141204</v>
+        <v>45082.02346578704</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,13 +573,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Toolbox', 'Quantity': 100}, {'Name': 'Level', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Screwdriver Set', 'Quantity': 200}, {'Name': 'Level', 'Quantity': 200}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -587,25 +587,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45081.97728148148</v>
+        <v>45082.02347712963</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45081.97729305556</v>
+        <v>45082.02347712963</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Supplier Y</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 500}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Hammer', 'Quantity': 300}, {'Name': 'Utility Knife', 'Quantity': 200}]</t>
+          <t>[{'Name': 'Yoga Block', 'Quantity': 100}, {'Name': 'Resistance Bands', 'Quantity': 500}, {'Name': 'Yoga Mat', 'Quantity': 300}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -613,25 +613,25 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45081.97728149305</v>
+        <v>45082.02347714121</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45081.97729306713</v>
+        <v>45082.02348871528</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Supplier A</t>
+          <t>Supplier K</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1000}, {'Name': 'AAA Batteries', 'Quantity': 1000}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -639,25 +639,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45081.9772815625</v>
+        <v>45082.0234771875</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45081.97729313657</v>
+        <v>45082.0234771875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Supplier I</t>
+          <t>Supplier S</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'Name': 'Tennis Racket', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 200}, {'Name': 'Cutting Board', 'Quantity': 100}, {'Name': 'Knife Set', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50008</v>
+        <v>50006</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -665,25 +665,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45081.97728171296</v>
+        <v>45082.02347723379</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45081.97728171296</v>
+        <v>45082.02347723379</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier J</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 500}, {'Name': 'Eyeshadow Palette', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 300}, {'Name': 'Meditation Cushion', 'Quantity': 100}, {'Name': 'Resistance Bands', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50009</v>
+        <v>50007</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45081.97728172454</v>
+        <v>45082.02347729167</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>45081.97728172454</v>
+        <v>45082.02348886574</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Supplier M</t>
+          <t>Supplier Y</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 500}, {'Name': 'Eyeshadow Palette', 'Quantity': 500}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 200}, {'Name': 'Screw Assortment Kit', 'Quantity': 500}, {'Name': 'Sanding Block', 'Quantity': 100}, {'Name': 'Toolbox', 'Quantity': 100}, {'Name': 'Level', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
@@ -717,19 +717,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45081.97728175926</v>
+        <v>45082.02347738426</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>45081.97729333333</v>
+        <v>45082.02347738426</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Supplier S</t>
+          <t>Supplier L</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Cutting Board', 'Quantity': 100}, {'Name': 'Knife Set', 'Quantity': 100}]</t>
+          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 300}]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>600056</v>
+        <v>600008</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45081.97733482905</v>
+        <v>45082.02350189566</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>45082.97733482905</v>
+        <v>45083.02350189566</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>600074</v>
+        <v>600039</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -820,25 +820,25 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45081.97733907991</v>
+        <v>45082.02351064376</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>45082.97733907991</v>
+        <v>45083.02351064376</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
+          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>600088</v>
+        <v>600054</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -846,25 +846,25 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45081.97734285107</v>
+        <v>45082.02351481024</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>45082.97734285107</v>
+        <v>45083.02351481024</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>600037</v>
+        <v>600075</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -872,25 +872,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45081.9773301019</v>
+        <v>45082.02352325712</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45083.01899676857</v>
+        <v>45083.02352325712</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Bath Towels', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>600038</v>
+        <v>600001</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -898,25 +898,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45081.97733026057</v>
+        <v>45082.02349966328</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45083.01899692723</v>
+        <v>45083.06516632994</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 4}, {'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>600082</v>
+        <v>600005</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45081.97734127659</v>
+        <v>45082.02350103154</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45083.01900794325</v>
+        <v>45083.06516769821</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[{'Name': 'Blender', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Coffee Maker', 'Quantity': 1}, {'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
+          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>600099</v>
+        <v>600009</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45081.97734535626</v>
+        <v>45082.02350204076</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45083.01901202293</v>
+        <v>45083.06516870743</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[{'Name': 'Laptop Backpack', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>600049</v>
+        <v>600010</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45081.97733299922</v>
+        <v>45082.02350235211</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45083.06066633256</v>
+        <v>45083.06516901877</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>600052</v>
+        <v>600028</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45081.97733372801</v>
+        <v>45082.02350794205</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>45083.06066706134</v>
+        <v>45083.06517460872</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1020,7 +1020,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>600006</v>
+        <v>600033</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45081.97731949675</v>
+        <v>45082.02350913913</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>45083.10231949675</v>
+        <v>45083.0651758058</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[{'Name': 'Paint Roller Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>600014</v>
+        <v>600088</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1054,25 +1054,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45081.97732184584</v>
+        <v>45082.02352651335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>45083.10232184584</v>
+        <v>45083.06519318598</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>600044</v>
+        <v>600096</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1080,25 +1080,25 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45081.97733157426</v>
+        <v>45082.02352862</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>45083.10233157426</v>
+        <v>45083.06519528667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>600046</v>
+        <v>600014</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1106,25 +1106,25 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45081.97733215705</v>
+        <v>45082.02350364297</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>45083.10233215705</v>
+        <v>45083.10683697631</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screwdriver Set', 'Quantity': 1}, {'Name': 'Toolbox', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
+          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>600062</v>
+        <v>600006</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45081.97733584476</v>
+        <v>45082.02350117927</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>45083.10233584476</v>
+        <v>45083.14850117927</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Calle Alcalá 25, Madrid, Madrid, 28014, Spagna</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>600027</v>
+        <v>600032</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1158,25 +1158,25 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45081.97732732334</v>
+        <v>45082.02350899945</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>45083.14399399001</v>
+        <v>45083.14850899945</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 3}, {'Name': 'Floor Lamp', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 3}]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>600050</v>
+        <v>600084</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1184,25 +1184,25 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45081.97733346021</v>
+        <v>45082.02352528186</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>45083.14400012688</v>
+        <v>45083.14852528186</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
+          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>600053</v>
+        <v>600018</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45081.97733415545</v>
+        <v>45082.02350457953</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>45083.14400082212</v>
+        <v>45083.19017124619</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[{'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>600094</v>
+        <v>600024</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1236,25 +1236,25 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45081.97734393072</v>
+        <v>45082.02350668351</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>45083.14401059738</v>
+        <v>45083.19017335017</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Wall Clock', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
+          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>600018</v>
+        <v>600044</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1262,25 +1262,25 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45081.97732331251</v>
+        <v>45082.02351175111</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>45083.18565664584</v>
+        <v>45083.19017842933</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>18 Rue du Temple, Lione, Alvernia-Rodano-Alpi, 69002, Francia</t>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>600010</v>
+        <v>600100</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45081.97732100025</v>
+        <v>45082.02353005199</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>45083.22732100025</v>
+        <v>45083.19019671866</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
+          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>600039</v>
+        <v>600019</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1314,25 +1314,25 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>45081.97733072827</v>
+        <v>45082.0235048998</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>45083.22733072827</v>
+        <v>45083.23183823314</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[{'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}, {'Name': 'Meditation Cushion', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Bahnhofstraße 30, Stoccarda, Baden-Württemberg, 70173, Germania</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>600042</v>
+        <v>600029</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1340,25 +1340,25 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>45081.97733114909</v>
+        <v>45082.02350822612</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>45083.22733114909</v>
+        <v>45083.23184155946</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}, {'Name': 'Paint Roller Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>600071</v>
+        <v>600040</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1366,25 +1366,25 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45081.97733805358</v>
+        <v>45082.02351094801</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>45083.22733805358</v>
+        <v>45083.23184428134</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>600051</v>
+        <v>600049</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1392,25 +1392,25 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>45081.97733359742</v>
+        <v>45082.0235133734</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>45083.26900026409</v>
+        <v>45083.23184670674</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 1}, {'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
+          <t>18 Rue du Temple, Lione, Alvernia-Rodano-Alpi, 69002, Francia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>600067</v>
+        <v>600066</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1418,25 +1418,25 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>45081.97733683346</v>
+        <v>45082.02351968271</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>45083.26900350013</v>
+        <v>45083.23185301604</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
+          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>600080</v>
+        <v>600079</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1444,25 +1444,25 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45081.97734053553</v>
+        <v>45082.02352412296</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>45083.2690072022</v>
+        <v>45083.2318574563</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>600098</v>
+        <v>600016</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1470,25 +1470,25 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45081.97734519485</v>
+        <v>45082.02350388777</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>45083.26901186151</v>
+        <v>45083.27350388777</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 2}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
+          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>600013</v>
+        <v>600095</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1496,25 +1496,25 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>45081.97732153818</v>
+        <v>45082.02352849426</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>45083.31065487151</v>
+        <v>45083.27352849426</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>600017</v>
+        <v>600027</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1522,25 +1522,25 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>45081.97732316011</v>
+        <v>45082.02350761878</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>45083.31065649345</v>
+        <v>45083.31517428545</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'Wireless Mouse', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>600023</v>
+        <v>600055</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1548,25 +1548,25 @@
         </is>
       </c>
       <c r="C31" s="5" t="n">
-        <v>45081.97732497176</v>
+        <v>45082.02351495298</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>45083.31065830509</v>
+        <v>45083.31518161966</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Floor Lamp', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
+          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>600033</v>
+        <v>600080</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1574,25 +1574,25 @@
         </is>
       </c>
       <c r="C32" s="5" t="n">
-        <v>45081.97732889837</v>
+        <v>45082.02352423035</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>45083.3106622317</v>
+        <v>45083.31519089701</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>600075</v>
+        <v>600089</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1600,25 +1600,25 @@
         </is>
       </c>
       <c r="C33" s="5" t="n">
-        <v>45081.97733939763</v>
+        <v>45082.02352669441</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>45083.31067273096</v>
+        <v>45083.31519336108</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[{'Name': 'Meditation Cushion', 'Quantity': 1}, {'Name': 'Food Storage Containers', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
+          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>600089</v>
+        <v>600093</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1626,25 +1626,25 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>45081.97734298323</v>
+        <v>45082.02352806753</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>45083.31067631656</v>
+        <v>45083.31519473419</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
+          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>600007</v>
+        <v>600097</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1652,25 +1652,25 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>45081.97732023213</v>
+        <v>45082.02352902833</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>45083.35232023213</v>
+        <v>45083.315195695</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[{'Name': 'Steam Iron', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 2}, {'Name': 'Food Storage Containers', 'Quantity': 1}, {'Name': 'Bed Sheets', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
+          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>600047</v>
+        <v>600002</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1678,25 +1678,25 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45081.97733229047</v>
+        <v>45082.02349994025</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>45083.39399896871</v>
+        <v>45083.35683327359</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Resistance Bands', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hauptstraße 10, Berlino, Berlino, 10115, Germania</t>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>600054</v>
+        <v>600017</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1704,25 +1704,25 @@
         </is>
       </c>
       <c r="C37" s="5" t="n">
-        <v>45081.97733440186</v>
+        <v>45082.02350430609</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>45083.39400106853</v>
+        <v>45083.35683763942</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>600060</v>
+        <v>600038</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1730,25 +1730,25 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>45081.97733540028</v>
+        <v>45082.02351052763</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>45083.39400206695</v>
+        <v>45083.35684386096</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wall Clock', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2}, {'Name': 'Mascara', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>600020</v>
+        <v>600067</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C39" s="5" t="n">
-        <v>45081.97732408339</v>
+        <v>45082.02352039306</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>45083.43565741673</v>
+        <v>45083.3568537264</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 2}, {'Name': 'AA Batteries', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>600028</v>
+        <v>600071</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1782,25 +1782,25 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>45081.97732750893</v>
+        <v>45082.02352223001</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>45083.43566084227</v>
+        <v>45083.35685556335</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>600041</v>
+        <v>600021</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1808,25 +1808,25 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>45081.97733100275</v>
+        <v>45082.02350565531</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>45083.43566433609</v>
+        <v>45083.39850565531</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+          <t>25 Avenue des Champs-Élysées, Parigi, Île-de-France, 75008, Francia</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>600076</v>
+        <v>600026</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1834,25 +1834,25 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>45081.97733954268</v>
+        <v>45082.02350730352</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>45083.43567287602</v>
+        <v>45083.39850730352</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>600086</v>
+        <v>600068</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1860,25 +1860,25 @@
         </is>
       </c>
       <c r="C43" s="5" t="n">
-        <v>45081.97734224982</v>
+        <v>45082.0235207646</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>45083.43567558315</v>
+        <v>45083.3985207646</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 2}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>600002</v>
+        <v>600020</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1886,25 +1886,25 @@
         </is>
       </c>
       <c r="C44" s="5" t="n">
-        <v>45081.97731805067</v>
+        <v>45082.02350520143</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>45083.47731805067</v>
+        <v>45083.4401718681</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wall Clock', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>600009</v>
+        <v>600034</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1912,25 +1912,25 @@
         </is>
       </c>
       <c r="C45" s="5" t="n">
-        <v>45081.97732070232</v>
+        <v>45082.02350929066</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>45083.47732070232</v>
+        <v>45083.44017595732</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
+          <t>Calle Alcalá 25, Madrid, Madrid, 28014, Spagna</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>600100</v>
+        <v>600036</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1938,25 +1938,25 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>45081.97734548193</v>
+        <v>45082.02350987265</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>45083.47734548193</v>
+        <v>45083.44017653932</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[{'Name': 'Paint Brush Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 2}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
+          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>600003</v>
+        <v>600046</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1964,25 +1964,25 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>45081.97731872375</v>
+        <v>45082.02351265634</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>45083.51898539042</v>
+        <v>45083.44017932301</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 2}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>600016</v>
+        <v>600063</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1990,25 +1990,25 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>45081.9773225395</v>
+        <v>45082.02351843652</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>45083.51898920617</v>
+        <v>45083.44018510318</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'Measuring Tape', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>600019</v>
+        <v>600072</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2016,25 +2016,25 @@
         </is>
       </c>
       <c r="C49" s="5" t="n">
-        <v>45081.9773236083</v>
+        <v>45082.02352254536</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>45083.51899027496</v>
+        <v>45083.44018921202</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>600025</v>
+        <v>600082</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2042,25 +2042,25 @@
         </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>45081.97732668113</v>
+        <v>45082.0235245877</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>45083.5189933478</v>
+        <v>45083.44019125436</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 2}, {'Name': 'Hammer', 'Quantity': 2}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Pillow', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
+          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>600026</v>
+        <v>600086</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2068,25 +2068,25 @@
         </is>
       </c>
       <c r="C51" s="5" t="n">
-        <v>45081.97732680441</v>
+        <v>45082.02352584884</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>45083.51899347108</v>
+        <v>45083.44019251551</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Pillow', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Bath Towels', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
+          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>600040</v>
+        <v>600091</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2094,25 +2094,25 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>45081.97733085513</v>
+        <v>45082.02352781068</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>45083.51899752179</v>
+        <v>45083.44019447735</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Pillow', 'Quantity': 2}, {'Name': 'Resistance Bands', 'Quantity': 2}, {'Name': 'Mascara', 'Quantity': 2}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>600048</v>
+        <v>600065</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2120,25 +2120,25 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>45081.97733276853</v>
+        <v>45082.02351937367</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>45083.5189994352</v>
+        <v>45083.481852707</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 3}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
+          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>600055</v>
+        <v>600004</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2146,25 +2146,25 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>45081.97733468543</v>
+        <v>45082.02350058715</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>45083.51900135209</v>
+        <v>45083.52350058715</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[{'Name': 'Level', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>600077</v>
+        <v>600023</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2172,25 +2172,25 @@
         </is>
       </c>
       <c r="C55" s="5" t="n">
-        <v>45081.97733968758</v>
+        <v>45082.02350650595</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>45083.51900635425</v>
+        <v>45083.52350650595</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>600032</v>
+        <v>600025</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2198,25 +2198,25 @@
         </is>
       </c>
       <c r="C56" s="5" t="n">
-        <v>45081.97732876093</v>
+        <v>45082.02350696772</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>45083.56066209426</v>
+        <v>45083.52350696772</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>600045</v>
+        <v>600056</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2224,25 +2224,25 @@
         </is>
       </c>
       <c r="C57" s="5" t="n">
-        <v>45081.97733170564</v>
+        <v>45082.0235158641</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>45083.56066503897</v>
+        <v>45083.5235158641</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 3}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'HDMI Cable', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>600058</v>
+        <v>600061</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="C58" s="5" t="n">
-        <v>45081.97733510318</v>
+        <v>45082.0235171118</v>
       </c>
       <c r="D58" s="5" t="n">
-        <v>45083.56066843652</v>
+        <v>45083.5235171118</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2262,13 +2262,13 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>600063</v>
+        <v>600064</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2276,25 +2276,25 @@
         </is>
       </c>
       <c r="C59" s="5" t="n">
-        <v>45081.9773361428</v>
+        <v>45082.02351877032</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>45083.56066948787</v>
+        <v>45083.52351877032</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>600065</v>
+        <v>600076</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="C60" s="5" t="n">
-        <v>45081.97733649085</v>
+        <v>45082.02352343417</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>45083.56066982418</v>
+        <v>45083.52352343417</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
+          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>600078</v>
+        <v>600085</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2328,25 +2328,25 @@
         </is>
       </c>
       <c r="C61" s="5" t="n">
-        <v>45081.97734027931</v>
+        <v>45082.0235254335</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>45083.56067361265</v>
+        <v>45083.5235254335</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'Paint Roller Kit', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
+          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>600081</v>
+        <v>600013</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2354,25 +2354,25 @@
         </is>
       </c>
       <c r="C62" s="5" t="n">
-        <v>45081.97734066819</v>
+        <v>45082.02350346099</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>45083.56067400153</v>
+        <v>45083.56517012767</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 3}, {'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>600097</v>
+        <v>600060</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2380,25 +2380,25 @@
         </is>
       </c>
       <c r="C63" s="5" t="n">
-        <v>45081.97734477186</v>
+        <v>45082.02351697125</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>45083.5606781052</v>
+        <v>45083.56518363792</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[{'Name': 'Cookware Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>600004</v>
+        <v>600074</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2406,25 +2406,25 @@
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>45081.97731887714</v>
+        <v>45082.02352297119</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>45083.60231887714</v>
+        <v>45083.56518963786</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}, {'Name': 'Basketball', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
+          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>600022</v>
+        <v>600003</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2432,25 +2432,25 @@
         </is>
       </c>
       <c r="C65" s="5" t="n">
-        <v>45081.97732481169</v>
+        <v>45082.02350045869</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>45083.60232481169</v>
+        <v>45083.60683379202</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 2}, {'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Paint Brush Set', 'Quantity': 2}, {'Name': 'Vacuum Cleaner', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>600066</v>
+        <v>600037</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2458,25 +2458,25 @@
         </is>
       </c>
       <c r="C66" s="5" t="n">
-        <v>45081.97733666513</v>
+        <v>45082.02351002026</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>45083.60233667688</v>
+        <v>45083.60684335359</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>600079</v>
+        <v>600058</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2484,25 +2484,25 @@
         </is>
       </c>
       <c r="C67" s="5" t="n">
-        <v>45081.97734041029</v>
+        <v>45082.02351628929</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>45083.60234041029</v>
+        <v>45083.60684962263</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[{'Name': 'Utility Knife', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Knife Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
+          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>600095</v>
+        <v>600081</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2510,25 +2510,25 @@
         </is>
       </c>
       <c r="C68" s="5" t="n">
-        <v>45081.97734419716</v>
+        <v>45082.02352435273</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>45083.60234419716</v>
+        <v>45083.60685768606</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bahnhofstraße 30, Stoccarda, Baden-Württemberg, 70173, Germania</t>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>600096</v>
+        <v>600069</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2536,25 +2536,25 @@
         </is>
       </c>
       <c r="C69" s="5" t="n">
-        <v>45081.97734464546</v>
+        <v>45082.02352165664</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>45083.60234464546</v>
+        <v>45083.64852165664</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 3}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 2}, {'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
+          <t>25 Avenue des Champs-Élysées, Parigi, Île-de-France, 75008, Francia</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>600034</v>
+        <v>600045</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C70" s="5" t="n">
-        <v>45081.97732900733</v>
+        <v>45082.02351221321</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>45083.64399567399</v>
+        <v>45083.69017887987</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>600059</v>
+        <v>600031</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2588,25 +2588,25 @@
         </is>
       </c>
       <c r="C71" s="5" t="n">
-        <v>45081.97733526974</v>
+        <v>45082.02350852652</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>45083.64400193641</v>
+        <v>45083.73184185985</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
+          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>600029</v>
+        <v>600041</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2614,14 +2614,14 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>45081.97732762909</v>
+        <v>45082.02351120693</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>45083.6856609744</v>
+        <v>45083.73184454026</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2632,7 +2632,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>600030</v>
+        <v>600051</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2640,25 +2640,25 @@
         </is>
       </c>
       <c r="C73" s="5" t="n">
-        <v>45081.97732777691</v>
+        <v>45082.02351403697</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>45083.68566111024</v>
+        <v>45083.7318473703</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>600070</v>
+        <v>600057</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2666,25 +2666,25 @@
         </is>
       </c>
       <c r="C74" s="5" t="n">
-        <v>45081.97733792052</v>
+        <v>45082.02351615461</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>45083.68567125386</v>
+        <v>45083.73184948794</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Pillow', 'Quantity': 1}, {'Name': 'Bath Towels', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>600084</v>
+        <v>600083</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="C75" s="5" t="n">
-        <v>45081.9773419815</v>
+        <v>45082.02352514804</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>45083.68567531482</v>
+        <v>45083.73185848138</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[{'Name': 'Basketball', 'Quantity': 2}, {'Name': 'Tennis Racket', 'Quantity': 1}]</t>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+          <t>12 Rue de la République, Parigi, Île-de-France, 75001, Francia</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>600085</v>
+        <v>600090</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2718,25 +2718,25 @@
         </is>
       </c>
       <c r="C76" s="5" t="n">
-        <v>45081.97734211489</v>
+        <v>45082.02352681565</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>45083.68567544823</v>
+        <v>45083.73186014898</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>600005</v>
+        <v>600070</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2744,25 +2744,25 @@
         </is>
       </c>
       <c r="C77" s="5" t="n">
-        <v>45081.97731934583</v>
+        <v>45082.02352209551</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>45083.72731934583</v>
+        <v>45083.77352209551</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 1}, {'Name': 'Hammer', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
+          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>600068</v>
+        <v>600092</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2770,25 +2770,25 @@
         </is>
       </c>
       <c r="C78" s="5" t="n">
-        <v>45081.97733698066</v>
+        <v>45082.02352795006</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>45083.72733698066</v>
+        <v>45083.77352795006</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
+          <t>12 Rue de la République, Parigi, Île-de-France, 75001, Francia</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>600087</v>
+        <v>600099</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2796,25 +2796,25 @@
         </is>
       </c>
       <c r="C79" s="5" t="n">
-        <v>45081.9773425388</v>
+        <v>45082.02352992063</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>45083.7273425388</v>
+        <v>45083.77352992063</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Paint Brush Set', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
+          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>600021</v>
+        <v>600022</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2822,19 +2822,19 @@
         </is>
       </c>
       <c r="C80" s="5" t="n">
-        <v>45081.97732422471</v>
+        <v>45082.02350621294</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>45083.76899089137</v>
+        <v>45083.81517287961</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2}, {'Name': 'Paint Brush Set', 'Quantity': 1}, {'Name': 'Measuring Tape', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
         </is>
       </c>
     </row>
@@ -2848,25 +2848,25 @@
         </is>
       </c>
       <c r="C81" s="5" t="n">
-        <v>45081.97732967817</v>
+        <v>45082.02350943913</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>45083.76899634484</v>
+        <v>45083.8151761058</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 2}, {'Name': 'Mascara', 'Quantity': 2}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>600073</v>
+        <v>600042</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2874,25 +2874,25 @@
         </is>
       </c>
       <c r="C82" s="5" t="n">
-        <v>45081.97733893494</v>
+        <v>45082.02351148308</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>45083.76900560161</v>
+        <v>45083.81517814974</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[{'Name': 'Paint Brush Set', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>600092</v>
+        <v>600062</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2900,25 +2900,25 @@
         </is>
       </c>
       <c r="C83" s="5" t="n">
-        <v>45081.977343408</v>
+        <v>45082.02351806641</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>45083.76901007466</v>
+        <v>45083.81518473308</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 2}, {'Name': 'Cookware Set', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>600001</v>
+        <v>600098</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2926,25 +2926,25 @@
         </is>
       </c>
       <c r="C84" s="5" t="n">
-        <v>45081.97731789418</v>
+        <v>45082.02352960956</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>45083.81065122751</v>
+        <v>45083.81519627623</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Hammer', 'Quantity': 1}, {'Name': 'Measuring Tape', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Screwdriver Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
+          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>600072</v>
+        <v>600011</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2952,25 +2952,25 @@
         </is>
       </c>
       <c r="C85" s="5" t="n">
-        <v>45081.97733849967</v>
+        <v>45082.02350262029</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>45083.81067183299</v>
+        <v>45083.85683595362</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 2}]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>600093</v>
+        <v>600012</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2978,25 +2978,25 @@
         </is>
       </c>
       <c r="C86" s="5" t="n">
-        <v>45081.97734357722</v>
+        <v>45082.02350275742</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>45083.81067691911</v>
+        <v>45083.85683609075</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Toolbox', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>600011</v>
+        <v>600047</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3004,25 +3004,25 @@
         </is>
       </c>
       <c r="C87" s="5" t="n">
-        <v>45081.97732113329</v>
+        <v>45082.02351282359</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>45083.85232113329</v>
+        <v>45083.85684615692</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>600057</v>
+        <v>600053</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3030,25 +3030,25 @@
         </is>
       </c>
       <c r="C88" s="5" t="n">
-        <v>45081.9773349828</v>
+        <v>45082.0235144882</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>45083.8523349828</v>
+        <v>45083.85684782153</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[{'Name': 'Sanding Block', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>600064</v>
+        <v>600030</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3056,25 +3056,25 @@
         </is>
       </c>
       <c r="C89" s="5" t="n">
-        <v>45081.97733629373</v>
+        <v>45082.02350838162</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>45083.85233629373</v>
+        <v>45083.89850838162</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>600083</v>
+        <v>600015</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3082,25 +3082,25 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>45081.97734158169</v>
+        <v>45082.02350376511</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>45083.85234158169</v>
+        <v>45083.94017043178</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Bed Sheets', 'Quantity': 1}]</t>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
+          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>600012</v>
+        <v>600094</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3108,25 +3108,25 @@
         </is>
       </c>
       <c r="C91" s="5" t="n">
-        <v>45081.97732139316</v>
+        <v>45082.02352833367</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>45083.89398805983</v>
+        <v>45083.94019500034</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>600031</v>
+        <v>600007</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3134,25 +3134,25 @@
         </is>
       </c>
       <c r="C92" s="5" t="n">
-        <v>45081.97732862055</v>
+        <v>45082.02350176493</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>45083.89399528721</v>
+        <v>45083.98183509826</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}, {'Name': 'Bath Towels', 'Quantity': 2}, {'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>600036</v>
+        <v>600059</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3160,25 +3160,25 @@
         </is>
       </c>
       <c r="C93" s="5" t="n">
-        <v>45081.97732998324</v>
+        <v>45082.0235168344</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>45083.89399664991</v>
+        <v>45083.98185016773</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'Hammer', 'Quantity': 1}, {'Name': 'Utility Knife', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>600069</v>
+        <v>600073</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="C94" s="5" t="n">
-        <v>45081.97733745033</v>
+        <v>45082.02352266638</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>45083.894004117</v>
+        <v>45083.98185599971</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 2}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>600090</v>
+        <v>600078</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3212,25 +3212,25 @@
         </is>
       </c>
       <c r="C95" s="5" t="n">
-        <v>45081.97734311665</v>
+        <v>45082.02352398741</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>45083.89400979489</v>
+        <v>45083.98185732074</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}, {'Name': 'Bed Sheets', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>600091</v>
+        <v>600043</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3238,25 +3238,25 @@
         </is>
       </c>
       <c r="C96" s="5" t="n">
-        <v>45081.97734327496</v>
+        <v>45082.02351161778</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>45083.89400994163</v>
+        <v>45084.02351161778</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Level', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
+          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>600015</v>
+        <v>600048</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3264,25 +3264,25 @@
         </is>
       </c>
       <c r="C97" s="5" t="n">
-        <v>45081.97732212132</v>
+        <v>45082.0235130702</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>45083.93565545465</v>
+        <v>45084.0235130702</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Utility Knife', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
+          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>600043</v>
+        <v>600050</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3290,25 +3290,25 @@
         </is>
       </c>
       <c r="C98" s="5" t="n">
-        <v>45081.9773313008</v>
+        <v>45082.0235137644</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>45083.93566463413</v>
+        <v>45084.0235137644</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>600008</v>
+        <v>600052</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3316,25 +3316,25 @@
         </is>
       </c>
       <c r="C99" s="5" t="n">
-        <v>45081.97732054578</v>
+        <v>45082.02351434401</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>45083.97732054578</v>
+        <v>45084.02351434401</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>600024</v>
+        <v>600077</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="C100" s="5" t="n">
-        <v>45081.97732575457</v>
+        <v>45082.0235236903</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>45083.97732575457</v>
+        <v>45084.0235236903</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 2}, {'Name': 'AA Batteries', 'Quantity': 2}]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>600061</v>
+        <v>600087</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3368,19 +3368,19 @@
         </is>
       </c>
       <c r="C101" s="5" t="n">
-        <v>45081.97733556274</v>
+        <v>45082.02352620411</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>45083.97733556274</v>
+        <v>45084.02352620411</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[{'Name': 'Coffee Maker', 'Quantity': 1}]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 1}, {'Name': 'Sanding Block', 'Quantity': 1}]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
